--- a/excel/blackhole_config.xlsx
+++ b/excel/blackhole_config.xlsx
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+  <si>
+    <t>编号【KEY】</t>
+  </si>
   <si>
     <t>等级</t>
   </si>
@@ -42,6 +45,9 @@
   </si>
   <si>
     <t>升到此等级所需经验</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
   <si>
     <t>level</t>
@@ -60,6 +66,12 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>serve_no</t>
+  </si>
+  <si>
+    <t>client</t>
   </si>
 </sst>
 </file>
@@ -1229,22 +1241,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
+    <row r="1" ht="16.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,232 +1273,311 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="16.5" spans="1:7">
+    <row r="2" ht="16.5" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5">
+        <v>100</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E9" s="4">
+        <v>40</v>
+      </c>
+      <c r="F9" s="6">
+        <v>500</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E10" s="4">
+        <v>50</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E11" s="4">
+        <v>60</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E12" s="4">
+        <v>70</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4">
         <v>9</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E13" s="4">
+        <v>80</v>
+      </c>
+      <c r="F13" s="6">
+        <v>4000</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
-    <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="3" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E14" s="4">
+        <v>90</v>
+      </c>
+      <c r="F14" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B15" s="4">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C15" s="4">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5">
-        <v>50</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4">
-        <v>30</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D15" s="4">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4">
         <v>100</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4">
-        <v>40</v>
-      </c>
-      <c r="E7" s="6">
-        <v>500</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4">
-        <v>50</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4">
-        <v>60</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4">
-        <v>70</v>
-      </c>
-      <c r="E10" s="6">
-        <v>3000</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4">
-        <v>80</v>
-      </c>
-      <c r="E11" s="6">
-        <v>4000</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4">
-        <v>90</v>
-      </c>
-      <c r="E12" s="6">
-        <v>5000</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4">
-        <v>100</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="F15" s="6">
         <v>6000</v>
       </c>
     </row>

--- a/excel/blackhole_config.xlsx
+++ b/excel/blackhole_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="21000" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>serve_no</t>
@@ -694,9 +697,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1241,344 +1247,1194 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="11.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="11.1296296296296" customWidth="1"/>
+    <col min="3" max="5" width="13.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6296296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15.6" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" ht="15.6" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" ht="15.6" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="5">
+        <f>D6*10</f>
+        <v>8</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" ref="E7:E38" si="0">D7*10</f>
+        <v>8.5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F11" s="7">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F12" s="7">
+        <v>15</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F13" s="7">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F14" s="7">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F15" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F16" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F17" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B18" s="5">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="C18" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F18" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B19" s="5">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C19" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F19" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F20" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="4">
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F21" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F22" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F23" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5">
+        <v>19</v>
+      </c>
+      <c r="B24" s="5">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F24" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5">
         <v>20</v>
       </c>
-      <c r="F7" s="5">
+      <c r="B25" s="5">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="F25" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5">
+        <v>21</v>
+      </c>
+      <c r="B26" s="5">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F26" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F27" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4.4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4.4</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F28" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5">
+        <v>24</v>
+      </c>
+      <c r="B29" s="5">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4.6</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4.6</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="F29" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5">
+        <v>25</v>
+      </c>
+      <c r="B30" s="5">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F30" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="5">
+        <v>26</v>
+      </c>
+      <c r="B31" s="5">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F31" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5">
+        <v>27</v>
+      </c>
+      <c r="B32" s="5">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="F32" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="5">
+        <v>28</v>
+      </c>
+      <c r="B33" s="5">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="F33" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="5">
+        <v>29</v>
+      </c>
+      <c r="B34" s="5">
+        <v>29</v>
+      </c>
+      <c r="C34" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="F34" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="5">
+        <v>30</v>
+      </c>
+      <c r="B35" s="5">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="F35" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="5">
+        <v>31</v>
+      </c>
+      <c r="B36" s="5">
+        <v>31</v>
+      </c>
+      <c r="C36" s="1">
+        <v>9</v>
+      </c>
+      <c r="D36" s="1">
+        <v>9</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="5">
+        <v>32</v>
+      </c>
+      <c r="B37" s="5">
+        <v>32</v>
+      </c>
+      <c r="C37" s="1">
+        <v>9.3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>9.3</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="5">
+        <v>33</v>
+      </c>
+      <c r="B38" s="5">
+        <v>33</v>
+      </c>
+      <c r="C38" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="D38" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="5">
+        <v>34</v>
+      </c>
+      <c r="B39" s="5">
+        <v>34</v>
+      </c>
+      <c r="C39" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="D39" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" ref="E39:E55" si="1">D39*10</f>
+        <v>99</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="5">
+        <v>35</v>
+      </c>
+      <c r="B40" s="5">
+        <v>35</v>
+      </c>
+      <c r="C40" s="1">
+        <v>10.2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>10.2</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="5">
+        <v>36</v>
+      </c>
+      <c r="B41" s="5">
+        <v>36</v>
+      </c>
+      <c r="C41" s="1">
+        <v>11</v>
+      </c>
+      <c r="D41" s="1">
+        <v>11</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="5">
+        <v>37</v>
+      </c>
+      <c r="B42" s="5">
+        <v>37</v>
+      </c>
+      <c r="C42" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="D42" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="F42" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="5">
+        <v>38</v>
+      </c>
+      <c r="B43" s="5">
+        <v>38</v>
+      </c>
+      <c r="C43" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="D43" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="F43" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="5">
+        <v>39</v>
+      </c>
+      <c r="B44" s="5">
+        <v>39</v>
+      </c>
+      <c r="C44" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="D44" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="5">
+        <v>40</v>
+      </c>
+      <c r="B45" s="5">
+        <v>40</v>
+      </c>
+      <c r="C45" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="5">
+        <v>41</v>
+      </c>
+      <c r="B46" s="5">
+        <v>41</v>
+      </c>
+      <c r="C46" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="F46" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="5">
+        <v>42</v>
+      </c>
+      <c r="B47" s="5">
+        <v>42</v>
+      </c>
+      <c r="C47" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="D47" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+      <c r="F47" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="5">
+        <v>43</v>
+      </c>
+      <c r="B48" s="5">
+        <v>43</v>
+      </c>
+      <c r="C48" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="D48" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+      <c r="F48" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="5">
+        <v>44</v>
+      </c>
+      <c r="B49" s="5">
+        <v>44</v>
+      </c>
+      <c r="C49" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="D49" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="F49" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="5">
+        <v>45</v>
+      </c>
+      <c r="B50" s="5">
+        <v>45</v>
+      </c>
+      <c r="C50" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="F50" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="5">
+        <v>46</v>
+      </c>
+      <c r="B51" s="5">
+        <v>46</v>
+      </c>
+      <c r="C51" s="1">
+        <v>18</v>
+      </c>
+      <c r="D51" s="1">
+        <v>18</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="F51" s="1">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="5">
+        <v>47</v>
+      </c>
+      <c r="B52" s="5">
+        <v>47</v>
+      </c>
+      <c r="C52" s="1">
+        <v>18.4</v>
+      </c>
+      <c r="D52" s="1">
+        <v>18.4</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="F52" s="1">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="5">
+        <v>48</v>
+      </c>
+      <c r="B53" s="5">
+        <v>48</v>
+      </c>
+      <c r="C53" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="D53" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="1"/>
+        <v>188</v>
+      </c>
+      <c r="F53" s="1">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="5">
+        <v>49</v>
+      </c>
+      <c r="B54" s="5">
+        <v>49</v>
+      </c>
+      <c r="C54" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="F54" s="1">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="5">
         <v>50</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4">
-        <v>30</v>
-      </c>
-      <c r="F8" s="5">
-        <v>100</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4">
-        <v>40</v>
-      </c>
-      <c r="F9" s="6">
-        <v>500</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="B55" s="5">
         <v>50</v>
       </c>
-      <c r="F10" s="6">
-        <v>1000</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4">
-        <v>60</v>
-      </c>
-      <c r="F11" s="6">
-        <v>2000</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4">
-        <v>7</v>
-      </c>
-      <c r="D12" s="4">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4">
-        <v>70</v>
-      </c>
-      <c r="F12" s="6">
-        <v>3000</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4">
-        <v>9</v>
-      </c>
-      <c r="E13" s="4">
-        <v>80</v>
-      </c>
-      <c r="F13" s="6">
-        <v>4000</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4">
-        <v>10</v>
-      </c>
-      <c r="E14" s="4">
-        <v>90</v>
-      </c>
-      <c r="F14" s="6">
-        <v>5000</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4">
-        <v>10</v>
-      </c>
-      <c r="D15" s="4">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>100</v>
-      </c>
-      <c r="F15" s="6">
-        <v>6000</v>
+      <c r="C55" s="1">
+        <v>19.6</v>
+      </c>
+      <c r="D55" s="1">
+        <v>19.6</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+      <c r="F55" s="1">
+        <v>22500</v>
       </c>
     </row>
   </sheetData>

--- a/excel/blackhole_config.xlsx
+++ b/excel/blackhole_config.xlsx
@@ -697,7 +697,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,9 +715,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1250,9 +1247,9 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1321,7 +1318,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
@@ -1387,7 +1384,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1410,7 +1407,7 @@
         <v>8.5</v>
       </c>
       <c r="F7" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1433,7 +1430,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1456,7 +1453,7 @@
         <v>9.5</v>
       </c>
       <c r="F9" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1479,7 +1476,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1501,8 +1498,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F11" s="7">
-        <v>15</v>
+      <c r="F11" s="1">
+        <v>45</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1524,8 +1521,8 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F12" s="7">
-        <v>15</v>
+      <c r="F12" s="1">
+        <v>45</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1547,8 +1544,8 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F13" s="7">
-        <v>15</v>
+      <c r="F13" s="1">
+        <v>45</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1570,8 +1567,8 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F14" s="7">
-        <v>15</v>
+      <c r="F14" s="1">
+        <v>45</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1593,8 +1590,8 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F15" s="7">
-        <v>15</v>
+      <c r="F15" s="1">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1615,7 +1612,7 @@
         <v>25</v>
       </c>
       <c r="F16" s="1">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1636,7 +1633,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="1">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1657,7 +1654,7 @@
         <v>27</v>
       </c>
       <c r="F18" s="1">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1678,7 +1675,7 @@
         <v>28</v>
       </c>
       <c r="F19" s="1">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1699,7 +1696,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="1">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1720,7 +1717,7 @@
         <v>30</v>
       </c>
       <c r="F21" s="1">
-        <v>105</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1741,7 +1738,7 @@
         <v>31</v>
       </c>
       <c r="F22" s="1">
-        <v>105</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1762,7 +1759,7 @@
         <v>32</v>
       </c>
       <c r="F23" s="1">
-        <v>105</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1783,7 +1780,7 @@
         <v>33</v>
       </c>
       <c r="F24" s="1">
-        <v>105</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1804,7 +1801,7 @@
         <v>34</v>
       </c>
       <c r="F25" s="1">
-        <v>105</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1825,7 +1822,7 @@
         <v>40</v>
       </c>
       <c r="F26" s="1">
-        <v>150</v>
+        <v>750</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1846,7 +1843,7 @@
         <v>42</v>
       </c>
       <c r="F27" s="1">
-        <v>150</v>
+        <v>750</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1867,7 +1864,7 @@
         <v>44</v>
       </c>
       <c r="F28" s="1">
-        <v>150</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1888,7 +1885,7 @@
         <v>46</v>
       </c>
       <c r="F29" s="1">
-        <v>150</v>
+        <v>750</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1909,7 +1906,7 @@
         <v>48</v>
       </c>
       <c r="F30" s="1">
-        <v>150</v>
+        <v>750</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1930,7 +1927,7 @@
         <v>55</v>
       </c>
       <c r="F31" s="1">
-        <v>750</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1951,7 +1948,7 @@
         <v>57</v>
       </c>
       <c r="F32" s="1">
-        <v>750</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1972,7 +1969,7 @@
         <v>59</v>
       </c>
       <c r="F33" s="1">
-        <v>750</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1993,7 +1990,7 @@
         <v>61</v>
       </c>
       <c r="F34" s="1">
-        <v>750</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2014,7 +2011,7 @@
         <v>63</v>
       </c>
       <c r="F35" s="1">
-        <v>750</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2035,7 +2032,7 @@
         <v>90</v>
       </c>
       <c r="F36" s="1">
-        <v>1500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2056,7 +2053,7 @@
         <v>93</v>
       </c>
       <c r="F37" s="1">
-        <v>1500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2077,7 +2074,7 @@
         <v>96</v>
       </c>
       <c r="F38" s="1">
-        <v>1500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2098,7 +2095,7 @@
         <v>99</v>
       </c>
       <c r="F39" s="1">
-        <v>1500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2119,7 +2116,7 @@
         <v>102</v>
       </c>
       <c r="F40" s="1">
-        <v>1500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2140,7 +2137,7 @@
         <v>110</v>
       </c>
       <c r="F41" s="1">
-        <v>4500</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2161,7 +2158,7 @@
         <v>113</v>
       </c>
       <c r="F42" s="1">
-        <v>4500</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2182,7 +2179,7 @@
         <v>116</v>
       </c>
       <c r="F43" s="1">
-        <v>4500</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2203,7 +2200,7 @@
         <v>119</v>
       </c>
       <c r="F44" s="1">
-        <v>4500</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2224,7 +2221,7 @@
         <v>122</v>
       </c>
       <c r="F45" s="1">
-        <v>4500</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2245,7 +2242,7 @@
         <v>135</v>
       </c>
       <c r="F46" s="1">
-        <v>12000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2266,7 +2263,7 @@
         <v>139</v>
       </c>
       <c r="F47" s="1">
-        <v>12000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2287,7 +2284,7 @@
         <v>143</v>
       </c>
       <c r="F48" s="1">
-        <v>12000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2308,7 +2305,7 @@
         <v>147</v>
       </c>
       <c r="F49" s="1">
-        <v>12000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2329,7 +2326,7 @@
         <v>151</v>
       </c>
       <c r="F50" s="1">
-        <v>12000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="51" spans="1:6">

--- a/excel/blackhole_config.xlsx
+++ b/excel/blackhole_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12780"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>float</t>
   </si>
   <si>
     <t>serve_no</t>
@@ -1244,23 +1241,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.3796296296296" customWidth="1"/>
-    <col min="2" max="2" width="11.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="5" width="13.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6296296296296" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:8">
+    <row r="1" ht="16.5" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1282,7 +1279,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="15.6" spans="1:8">
+    <row r="2" ht="16.5" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1304,7 +1301,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="15.6" spans="1:8">
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1312,13 +1309,13 @@
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
@@ -1326,44 +1323,44 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" ht="15.6" spans="1:6">
+    <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:6">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="15.6" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1377,11 +1374,12 @@
         <v>0.8</v>
       </c>
       <c r="D6" s="5">
-        <v>0.8</v>
+        <f>C6*2</f>
+        <v>1.6</v>
       </c>
       <c r="E6" s="5">
         <f>D6*10</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F6" s="6">
         <v>15</v>
@@ -1397,14 +1395,15 @@
         <v>2</v>
       </c>
       <c r="C7" s="5">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D7" s="5">
-        <v>0.85</v>
+        <f t="shared" ref="D7:D38" si="0">C7*2</f>
+        <v>1.9</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" ref="E7:E38" si="0">D7*10</f>
-        <v>8.5</v>
+        <f t="shared" ref="E7:E38" si="1">D7*10</f>
+        <v>19</v>
       </c>
       <c r="F7" s="6">
         <v>15</v>
@@ -1420,14 +1419,15 @@
         <v>3</v>
       </c>
       <c r="C8" s="5">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="D8" s="5">
-        <v>0.9</v>
+        <f t="shared" si="0"/>
+        <v>2.2</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="F8" s="6">
         <v>15</v>
@@ -1443,14 +1443,15 @@
         <v>4</v>
       </c>
       <c r="C9" s="5">
-        <v>0.95</v>
+        <v>1.25</v>
       </c>
       <c r="D9" s="5">
-        <v>0.95</v>
+        <f t="shared" si="0"/>
+        <v>2.5</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="F9" s="6">
         <v>15</v>
@@ -1466,14 +1467,15 @@
         <v>5</v>
       </c>
       <c r="C10" s="5">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="D10" s="5">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2.8</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="F10" s="6">
         <v>15</v>
@@ -1489,17 +1491,18 @@
         <v>6</v>
       </c>
       <c r="C11" s="5">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D11" s="5">
-        <v>1.2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="F11" s="1">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1512,17 +1515,18 @@
         <v>7</v>
       </c>
       <c r="C12" s="5">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="D12" s="5">
-        <v>1.3</v>
+        <f t="shared" si="0"/>
+        <v>3.4</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="F12" s="1">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1535,17 +1539,18 @@
         <v>8</v>
       </c>
       <c r="C13" s="5">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="D13" s="5">
-        <v>1.4</v>
+        <f t="shared" si="0"/>
+        <v>3.8</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="F13" s="1">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1558,17 +1563,18 @@
         <v>9</v>
       </c>
       <c r="C14" s="5">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="D14" s="5">
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>4.2</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="F14" s="1">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1581,17 +1587,18 @@
         <v>10</v>
       </c>
       <c r="C15" s="5">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="D15" s="5">
-        <v>1.6</v>
+        <f t="shared" si="0"/>
+        <v>4.6</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
       <c r="F15" s="1">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1604,15 +1611,16 @@
       <c r="C16" s="1">
         <v>2.5</v>
       </c>
-      <c r="D16" s="1">
-        <v>2.5</v>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="F16" s="1">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1625,15 +1633,16 @@
       <c r="C17" s="1">
         <v>2.6</v>
       </c>
-      <c r="D17" s="1">
-        <v>2.6</v>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
       <c r="F17" s="1">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1646,15 +1655,16 @@
       <c r="C18" s="1">
         <v>2.7</v>
       </c>
-      <c r="D18" s="1">
-        <v>2.7</v>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="F18" s="1">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1667,15 +1677,16 @@
       <c r="C19" s="1">
         <v>2.8</v>
       </c>
-      <c r="D19" s="1">
-        <v>2.8</v>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>56</v>
       </c>
       <c r="F19" s="1">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1688,15 +1699,16 @@
       <c r="C20" s="1">
         <v>2.9</v>
       </c>
-      <c r="D20" s="1">
-        <v>2.9</v>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>5.8</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="F20" s="1">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1709,15 +1721,16 @@
       <c r="C21" s="1">
         <v>3</v>
       </c>
-      <c r="D21" s="1">
-        <v>3</v>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="F21" s="1">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1730,15 +1743,16 @@
       <c r="C22" s="1">
         <v>3.1</v>
       </c>
-      <c r="D22" s="1">
-        <v>3.1</v>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>6.2</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>62</v>
       </c>
       <c r="F22" s="1">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1751,15 +1765,16 @@
       <c r="C23" s="1">
         <v>3.2</v>
       </c>
-      <c r="D23" s="1">
-        <v>3.2</v>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>64</v>
       </c>
       <c r="F23" s="1">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1772,15 +1787,16 @@
       <c r="C24" s="1">
         <v>3.3</v>
       </c>
-      <c r="D24" s="1">
-        <v>3.3</v>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>66</v>
       </c>
       <c r="F24" s="1">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1793,15 +1809,16 @@
       <c r="C25" s="1">
         <v>3.4</v>
       </c>
-      <c r="D25" s="1">
-        <v>3.4</v>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
       <c r="F25" s="1">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1814,15 +1831,16 @@
       <c r="C26" s="1">
         <v>4</v>
       </c>
-      <c r="D26" s="1">
-        <v>4</v>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="F26" s="1">
-        <v>750</v>
+        <v>900</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1835,15 +1853,16 @@
       <c r="C27" s="1">
         <v>4.2</v>
       </c>
-      <c r="D27" s="1">
-        <v>4.2</v>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>84</v>
       </c>
       <c r="F27" s="1">
-        <v>750</v>
+        <v>900</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1856,15 +1875,16 @@
       <c r="C28" s="1">
         <v>4.4</v>
       </c>
-      <c r="D28" s="1">
-        <v>4.4</v>
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>8.8</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <f t="shared" si="1"/>
+        <v>88</v>
       </c>
       <c r="F28" s="1">
-        <v>750</v>
+        <v>900</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1877,15 +1897,16 @@
       <c r="C29" s="1">
         <v>4.6</v>
       </c>
-      <c r="D29" s="1">
-        <v>4.6</v>
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>9.2</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>92</v>
       </c>
       <c r="F29" s="1">
-        <v>750</v>
+        <v>900</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1898,15 +1919,16 @@
       <c r="C30" s="1">
         <v>4.8</v>
       </c>
-      <c r="D30" s="1">
-        <v>4.8</v>
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>9.6</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>96</v>
       </c>
       <c r="F30" s="1">
-        <v>750</v>
+        <v>900</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1919,15 +1941,16 @@
       <c r="C31" s="1">
         <v>5.5</v>
       </c>
-      <c r="D31" s="1">
-        <v>5.5</v>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <f t="shared" si="1"/>
+        <v>110</v>
       </c>
       <c r="F31" s="1">
-        <v>1500</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1940,15 +1963,16 @@
       <c r="C32" s="1">
         <v>5.7</v>
       </c>
-      <c r="D32" s="1">
-        <v>5.7</v>
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>11.4</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>114</v>
       </c>
       <c r="F32" s="1">
-        <v>1500</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1961,15 +1985,16 @@
       <c r="C33" s="1">
         <v>5.9</v>
       </c>
-      <c r="D33" s="1">
-        <v>5.9</v>
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>11.8</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>118</v>
       </c>
       <c r="F33" s="1">
-        <v>1500</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1982,15 +2007,16 @@
       <c r="C34" s="1">
         <v>6.1</v>
       </c>
-      <c r="D34" s="1">
-        <v>6.1</v>
+      <c r="D34" s="5">
+        <f t="shared" si="0"/>
+        <v>12.2</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="0"/>
-        <v>61</v>
+        <f t="shared" si="1"/>
+        <v>122</v>
       </c>
       <c r="F34" s="1">
-        <v>1500</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2003,15 +2029,16 @@
       <c r="C35" s="1">
         <v>6.3</v>
       </c>
-      <c r="D35" s="1">
-        <v>6.3</v>
+      <c r="D35" s="5">
+        <f t="shared" si="0"/>
+        <v>12.6</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <f t="shared" si="1"/>
+        <v>126</v>
       </c>
       <c r="F35" s="1">
-        <v>1500</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2024,15 +2051,16 @@
       <c r="C36" s="1">
         <v>9</v>
       </c>
-      <c r="D36" s="1">
-        <v>9</v>
+      <c r="D36" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>180</v>
       </c>
       <c r="F36" s="1">
-        <v>4500</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2045,15 +2073,16 @@
       <c r="C37" s="1">
         <v>9.3</v>
       </c>
-      <c r="D37" s="1">
-        <v>9.3</v>
+      <c r="D37" s="5">
+        <f t="shared" si="0"/>
+        <v>18.6</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="0"/>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>186</v>
       </c>
       <c r="F37" s="1">
-        <v>4500</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2066,15 +2095,16 @@
       <c r="C38" s="1">
         <v>9.6</v>
       </c>
-      <c r="D38" s="1">
-        <v>9.6</v>
+      <c r="D38" s="5">
+        <f t="shared" si="0"/>
+        <v>19.2</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="0"/>
-        <v>96</v>
+        <f t="shared" si="1"/>
+        <v>192</v>
       </c>
       <c r="F38" s="1">
-        <v>4500</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2087,15 +2117,16 @@
       <c r="C39" s="1">
         <v>9.9</v>
       </c>
-      <c r="D39" s="1">
-        <v>9.9</v>
+      <c r="D39" s="5">
+        <f t="shared" ref="D39:D60" si="2">C39*2</f>
+        <v>19.8</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" ref="E39:E55" si="1">D39*10</f>
-        <v>99</v>
+        <f t="shared" ref="E39:E60" si="3">D39*10</f>
+        <v>198</v>
       </c>
       <c r="F39" s="1">
-        <v>4500</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2108,15 +2139,16 @@
       <c r="C40" s="1">
         <v>10.2</v>
       </c>
-      <c r="D40" s="1">
-        <v>10.2</v>
+      <c r="D40" s="5">
+        <f t="shared" si="2"/>
+        <v>20.4</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="1"/>
-        <v>102</v>
+        <f t="shared" si="3"/>
+        <v>204</v>
       </c>
       <c r="F40" s="1">
-        <v>4500</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2129,15 +2161,16 @@
       <c r="C41" s="1">
         <v>11</v>
       </c>
-      <c r="D41" s="1">
-        <v>11</v>
+      <c r="D41" s="5">
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <f t="shared" si="3"/>
+        <v>220</v>
       </c>
       <c r="F41" s="1">
-        <v>12000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2150,15 +2183,16 @@
       <c r="C42" s="1">
         <v>11.3</v>
       </c>
-      <c r="D42" s="1">
-        <v>11.3</v>
+      <c r="D42" s="5">
+        <f t="shared" si="2"/>
+        <v>22.6</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="1"/>
-        <v>113</v>
+        <f t="shared" si="3"/>
+        <v>226</v>
       </c>
       <c r="F42" s="1">
-        <v>12000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2171,15 +2205,16 @@
       <c r="C43" s="1">
         <v>11.6</v>
       </c>
-      <c r="D43" s="1">
-        <v>11.6</v>
+      <c r="D43" s="5">
+        <f t="shared" si="2"/>
+        <v>23.2</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="1"/>
-        <v>116</v>
+        <f t="shared" si="3"/>
+        <v>232</v>
       </c>
       <c r="F43" s="1">
-        <v>12000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2192,15 +2227,16 @@
       <c r="C44" s="1">
         <v>11.9</v>
       </c>
-      <c r="D44" s="1">
-        <v>11.9</v>
+      <c r="D44" s="5">
+        <f t="shared" si="2"/>
+        <v>23.8</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="1"/>
-        <v>119</v>
+        <f t="shared" si="3"/>
+        <v>238</v>
       </c>
       <c r="F44" s="1">
-        <v>12000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2213,15 +2249,16 @@
       <c r="C45" s="1">
         <v>12.2</v>
       </c>
-      <c r="D45" s="1">
-        <v>12.2</v>
+      <c r="D45" s="5">
+        <f t="shared" si="2"/>
+        <v>24.4</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="1"/>
-        <v>122</v>
+        <f t="shared" si="3"/>
+        <v>244</v>
       </c>
       <c r="F45" s="1">
-        <v>12000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2234,15 +2271,16 @@
       <c r="C46" s="1">
         <v>13.5</v>
       </c>
-      <c r="D46" s="1">
-        <v>13.5</v>
+      <c r="D46" s="5">
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="1"/>
-        <v>135</v>
+        <f t="shared" si="3"/>
+        <v>270</v>
       </c>
       <c r="F46" s="1">
-        <v>22500</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2255,15 +2293,16 @@
       <c r="C47" s="1">
         <v>13.9</v>
       </c>
-      <c r="D47" s="1">
-        <v>13.9</v>
+      <c r="D47" s="5">
+        <f t="shared" si="2"/>
+        <v>27.8</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="1"/>
-        <v>139</v>
+        <f t="shared" si="3"/>
+        <v>278</v>
       </c>
       <c r="F47" s="1">
-        <v>22500</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2276,15 +2315,16 @@
       <c r="C48" s="1">
         <v>14.3</v>
       </c>
-      <c r="D48" s="1">
-        <v>14.3</v>
+      <c r="D48" s="5">
+        <f t="shared" si="2"/>
+        <v>28.6</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="1"/>
-        <v>143</v>
+        <f t="shared" si="3"/>
+        <v>286</v>
       </c>
       <c r="F48" s="1">
-        <v>22500</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2297,15 +2337,16 @@
       <c r="C49" s="1">
         <v>14.7</v>
       </c>
-      <c r="D49" s="1">
-        <v>14.7</v>
+      <c r="D49" s="5">
+        <f t="shared" si="2"/>
+        <v>29.4</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="1"/>
-        <v>147</v>
+        <f t="shared" si="3"/>
+        <v>294</v>
       </c>
       <c r="F49" s="1">
-        <v>22500</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2318,15 +2359,16 @@
       <c r="C50" s="1">
         <v>15.1</v>
       </c>
-      <c r="D50" s="1">
-        <v>15.1</v>
+      <c r="D50" s="5">
+        <f t="shared" si="2"/>
+        <v>30.2</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="1"/>
-        <v>151</v>
+        <f t="shared" si="3"/>
+        <v>302</v>
       </c>
       <c r="F50" s="1">
-        <v>22500</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2339,15 +2381,16 @@
       <c r="C51" s="1">
         <v>18</v>
       </c>
-      <c r="D51" s="1">
-        <v>18</v>
+      <c r="D51" s="5">
+        <f t="shared" si="2"/>
+        <v>36</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="1"/>
-        <v>180</v>
+        <f t="shared" si="3"/>
+        <v>360</v>
       </c>
       <c r="F51" s="1">
-        <v>22500</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2360,15 +2403,16 @@
       <c r="C52" s="1">
         <v>18.4</v>
       </c>
-      <c r="D52" s="1">
-        <v>18.4</v>
+      <c r="D52" s="5">
+        <f t="shared" si="2"/>
+        <v>36.8</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="1"/>
-        <v>184</v>
+        <f t="shared" si="3"/>
+        <v>368</v>
       </c>
       <c r="F52" s="1">
-        <v>22500</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2381,15 +2425,16 @@
       <c r="C53" s="1">
         <v>18.8</v>
       </c>
-      <c r="D53" s="1">
-        <v>18.8</v>
+      <c r="D53" s="5">
+        <f t="shared" si="2"/>
+        <v>37.6</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="1"/>
-        <v>188</v>
+        <f t="shared" si="3"/>
+        <v>376</v>
       </c>
       <c r="F53" s="1">
-        <v>22500</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2402,15 +2447,16 @@
       <c r="C54" s="1">
         <v>19.2</v>
       </c>
-      <c r="D54" s="1">
-        <v>19.2</v>
+      <c r="D54" s="5">
+        <f t="shared" si="2"/>
+        <v>38.4</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="1"/>
-        <v>192</v>
+        <f t="shared" si="3"/>
+        <v>384</v>
       </c>
       <c r="F54" s="1">
-        <v>22500</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2423,19 +2469,131 @@
       <c r="C55" s="1">
         <v>19.6</v>
       </c>
-      <c r="D55" s="1">
-        <v>19.6</v>
+      <c r="D55" s="5">
+        <f t="shared" si="2"/>
+        <v>39.2</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="1"/>
-        <v>196</v>
+        <f t="shared" si="3"/>
+        <v>392</v>
       </c>
       <c r="F55" s="1">
-        <v>22500</v>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="5">
+        <v>51</v>
+      </c>
+      <c r="B56" s="5">
+        <v>51</v>
+      </c>
+      <c r="C56" s="1">
+        <v>23</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+      <c r="F56" s="1">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="5">
+        <v>52</v>
+      </c>
+      <c r="B57" s="5">
+        <v>52</v>
+      </c>
+      <c r="C57" s="1">
+        <v>23</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+      <c r="F57" s="1">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="5">
+        <v>53</v>
+      </c>
+      <c r="B58" s="5">
+        <v>53</v>
+      </c>
+      <c r="C58" s="1">
+        <v>23</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+      <c r="F58" s="1">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="5">
+        <v>54</v>
+      </c>
+      <c r="B59" s="5">
+        <v>54</v>
+      </c>
+      <c r="C59" s="1">
+        <v>23</v>
+      </c>
+      <c r="D59" s="5">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="E59" s="5">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+      <c r="F59" s="1">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="5">
+        <v>55</v>
+      </c>
+      <c r="B60" s="5">
+        <v>55</v>
+      </c>
+      <c r="C60" s="1">
+        <v>23</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="E60" s="5">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+      <c r="F60" s="1">
+        <v>999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/excel/blackhole_config.xlsx
+++ b/excel/blackhole_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>serve_no</t>
@@ -1246,7 +1249,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1309,10 +1312,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
@@ -1325,42 +1328,42 @@
     </row>
     <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">

--- a/excel/blackhole_config.xlsx
+++ b/excel/blackhole_config.xlsx
@@ -1244,15 +1244,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
@@ -1260,7 +1260,7 @@
     <col min="6" max="6" width="17.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
+    <row r="1" ht="16.5" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1280,9 +1280,8 @@
         <v>5</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:8">
+    </row>
+    <row r="2" ht="16.5" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1302,9 +1301,8 @@
         <v>11</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:8">
+    </row>
+    <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1324,7 +1322,6 @@
         <v>12</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
     </row>
     <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="4" t="s">
@@ -1366,7 +1363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -1374,23 +1371,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="5">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="D6" s="5">
         <f>C6*2</f>
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="E6" s="5">
         <f>D6*10</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F6" s="6">
         <v>15</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -1398,23 +1394,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="5">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" ref="D7:D38" si="0">C7*2</f>
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E38" si="1">D7*10</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F7" s="6">
         <v>15</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -1422,23 +1417,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="5">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F8" s="6">
         <v>15</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -1446,23 +1440,22 @@
         <v>4</v>
       </c>
       <c r="C9" s="5">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6">
         <v>15</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -1470,23 +1463,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="5">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F10" s="6">
         <v>15</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -1494,23 +1486,22 @@
         <v>6</v>
       </c>
       <c r="C11" s="5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1">
         <v>54</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -1518,23 +1509,22 @@
         <v>7</v>
       </c>
       <c r="C12" s="5">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1">
         <v>54</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -1542,23 +1532,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="5">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1">
         <v>54</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -1566,21 +1555,20 @@
         <v>9</v>
       </c>
       <c r="C14" s="5">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="0"/>
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1">
         <v>54</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5">
@@ -1590,15 +1578,15 @@
         <v>10</v>
       </c>
       <c r="C15" s="5">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F15" s="1">
         <v>54</v>
@@ -1612,15 +1600,15 @@
         <v>11</v>
       </c>
       <c r="C16" s="1">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1">
         <v>126</v>
@@ -1634,15 +1622,15 @@
         <v>12</v>
       </c>
       <c r="C17" s="1">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" si="0"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1">
         <v>126</v>
@@ -1656,15 +1644,15 @@
         <v>13</v>
       </c>
       <c r="C18" s="1">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D18" s="5">
         <f t="shared" si="0"/>
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F18" s="1">
         <v>126</v>
@@ -1678,15 +1666,15 @@
         <v>14</v>
       </c>
       <c r="C19" s="1">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" si="0"/>
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F19" s="1">
         <v>126</v>
@@ -1700,15 +1688,15 @@
         <v>15</v>
       </c>
       <c r="C20" s="1">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D20" s="5">
         <f t="shared" si="0"/>
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F20" s="1">
         <v>126</v>
@@ -1722,15 +1710,15 @@
         <v>16</v>
       </c>
       <c r="C21" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D21" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1">
         <v>180</v>
@@ -1744,15 +1732,15 @@
         <v>17</v>
       </c>
       <c r="C22" s="1">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D22" s="5">
         <f t="shared" si="0"/>
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F22" s="1">
         <v>180</v>
@@ -1766,15 +1754,15 @@
         <v>18</v>
       </c>
       <c r="C23" s="1">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D23" s="5">
         <f t="shared" si="0"/>
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F23" s="1">
         <v>180</v>
@@ -1788,15 +1776,15 @@
         <v>19</v>
       </c>
       <c r="C24" s="1">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D24" s="5">
         <f t="shared" si="0"/>
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F24" s="1">
         <v>180</v>
@@ -1810,15 +1798,15 @@
         <v>20</v>
       </c>
       <c r="C25" s="1">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D25" s="5">
         <f t="shared" si="0"/>
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F25" s="1">
         <v>180</v>
@@ -1832,15 +1820,15 @@
         <v>21</v>
       </c>
       <c r="C26" s="1">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D26" s="5">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F26" s="1">
         <v>900</v>
@@ -1854,15 +1842,15 @@
         <v>22</v>
       </c>
       <c r="C27" s="1">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="D27" s="5">
         <f t="shared" si="0"/>
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F27" s="1">
         <v>900</v>
@@ -1876,15 +1864,15 @@
         <v>23</v>
       </c>
       <c r="C28" s="1">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="D28" s="5">
         <f t="shared" si="0"/>
-        <v>8.8</v>
+        <v>9.8</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F28" s="1">
         <v>900</v>
@@ -1898,15 +1886,15 @@
         <v>24</v>
       </c>
       <c r="C29" s="1">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="D29" s="5">
         <f t="shared" si="0"/>
-        <v>9.2</v>
+        <v>10.2</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F29" s="1">
         <v>900</v>
@@ -1920,15 +1908,15 @@
         <v>25</v>
       </c>
       <c r="C30" s="1">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="D30" s="5">
         <f t="shared" si="0"/>
-        <v>9.6</v>
+        <v>10.6</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F30" s="1">
         <v>900</v>
@@ -1942,15 +1930,15 @@
         <v>26</v>
       </c>
       <c r="C31" s="1">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D31" s="5">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F31" s="1">
         <v>1800</v>
@@ -1964,15 +1952,15 @@
         <v>27</v>
       </c>
       <c r="C32" s="1">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="D32" s="5">
         <f t="shared" si="0"/>
-        <v>11.4</v>
+        <v>12.4</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="1"/>
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F32" s="1">
         <v>1800</v>
@@ -1986,15 +1974,15 @@
         <v>28</v>
       </c>
       <c r="C33" s="1">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="D33" s="5">
         <f t="shared" si="0"/>
-        <v>11.8</v>
+        <v>12.8</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F33" s="1">
         <v>1800</v>
@@ -2008,15 +1996,15 @@
         <v>29</v>
       </c>
       <c r="C34" s="1">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="D34" s="5">
         <f t="shared" si="0"/>
-        <v>12.2</v>
+        <v>13.2</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="1"/>
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F34" s="1">
         <v>1800</v>
@@ -2030,15 +2018,15 @@
         <v>30</v>
       </c>
       <c r="C35" s="1">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="D35" s="5">
         <f t="shared" si="0"/>
-        <v>12.6</v>
+        <v>13.6</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F35" s="1">
         <v>1800</v>
@@ -2052,15 +2040,15 @@
         <v>31</v>
       </c>
       <c r="C36" s="1">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D36" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F36" s="1">
         <v>5400</v>
@@ -2074,15 +2062,15 @@
         <v>32</v>
       </c>
       <c r="C37" s="1">
-        <v>9.3</v>
+        <v>9.8</v>
       </c>
       <c r="D37" s="5">
         <f t="shared" si="0"/>
-        <v>18.6</v>
+        <v>19.6</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="1"/>
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F37" s="1">
         <v>5400</v>
@@ -2096,15 +2084,15 @@
         <v>33</v>
       </c>
       <c r="C38" s="1">
-        <v>9.6</v>
+        <v>10.1</v>
       </c>
       <c r="D38" s="5">
         <f t="shared" si="0"/>
-        <v>19.2</v>
+        <v>20.2</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="1"/>
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F38" s="1">
         <v>5400</v>
@@ -2118,15 +2106,15 @@
         <v>34</v>
       </c>
       <c r="C39" s="1">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="D39" s="5">
         <f t="shared" ref="D39:D60" si="2">C39*2</f>
-        <v>19.8</v>
+        <v>20.8</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" ref="E39:E60" si="3">D39*10</f>
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F39" s="1">
         <v>5400</v>
@@ -2140,15 +2128,15 @@
         <v>35</v>
       </c>
       <c r="C40" s="1">
-        <v>10.2</v>
+        <v>10.7</v>
       </c>
       <c r="D40" s="5">
         <f t="shared" si="2"/>
-        <v>20.4</v>
+        <v>21.4</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="3"/>
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F40" s="1">
         <v>5400</v>
@@ -2162,15 +2150,15 @@
         <v>36</v>
       </c>
       <c r="C41" s="1">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="D41" s="5">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="3"/>
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F41" s="1">
         <v>14400</v>
@@ -2184,15 +2172,15 @@
         <v>37</v>
       </c>
       <c r="C42" s="1">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="D42" s="5">
         <f t="shared" si="2"/>
-        <v>22.6</v>
+        <v>23.6</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" si="3"/>
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F42" s="1">
         <v>14400</v>
@@ -2206,15 +2194,15 @@
         <v>38</v>
       </c>
       <c r="C43" s="1">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
       <c r="D43" s="5">
         <f t="shared" si="2"/>
-        <v>23.2</v>
+        <v>24.2</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" si="3"/>
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F43" s="1">
         <v>14400</v>
@@ -2228,15 +2216,15 @@
         <v>39</v>
       </c>
       <c r="C44" s="1">
-        <v>11.9</v>
+        <v>12.4</v>
       </c>
       <c r="D44" s="5">
         <f t="shared" si="2"/>
-        <v>23.8</v>
+        <v>24.8</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="3"/>
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F44" s="1">
         <v>14400</v>
@@ -2250,15 +2238,15 @@
         <v>40</v>
       </c>
       <c r="C45" s="1">
-        <v>12.2</v>
+        <v>12.7</v>
       </c>
       <c r="D45" s="5">
         <f t="shared" si="2"/>
-        <v>24.4</v>
+        <v>25.4</v>
       </c>
       <c r="E45" s="5">
         <f t="shared" si="3"/>
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F45" s="1">
         <v>14400</v>
@@ -2272,15 +2260,15 @@
         <v>41</v>
       </c>
       <c r="C46" s="1">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="D46" s="5">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" si="3"/>
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="F46" s="1">
         <v>27000</v>
@@ -2294,15 +2282,15 @@
         <v>42</v>
       </c>
       <c r="C47" s="1">
-        <v>13.9</v>
+        <v>14.4</v>
       </c>
       <c r="D47" s="5">
         <f t="shared" si="2"/>
-        <v>27.8</v>
+        <v>28.8</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="3"/>
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F47" s="1">
         <v>27000</v>
@@ -2316,15 +2304,15 @@
         <v>43</v>
       </c>
       <c r="C48" s="1">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="D48" s="5">
         <f t="shared" si="2"/>
-        <v>28.6</v>
+        <v>29.6</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="3"/>
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F48" s="1">
         <v>27000</v>
@@ -2338,15 +2326,15 @@
         <v>44</v>
       </c>
       <c r="C49" s="1">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="D49" s="5">
         <f t="shared" si="2"/>
-        <v>29.4</v>
+        <v>30.4</v>
       </c>
       <c r="E49" s="5">
         <f t="shared" si="3"/>
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="F49" s="1">
         <v>27000</v>
@@ -2360,15 +2348,15 @@
         <v>45</v>
       </c>
       <c r="C50" s="1">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="D50" s="5">
         <f t="shared" si="2"/>
-        <v>30.2</v>
+        <v>31.2</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" si="3"/>
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="F50" s="1">
         <v>27000</v>
@@ -2382,15 +2370,15 @@
         <v>46</v>
       </c>
       <c r="C51" s="1">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="D51" s="5">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="F51" s="1">
         <v>54000</v>
@@ -2404,15 +2392,15 @@
         <v>47</v>
       </c>
       <c r="C52" s="1">
-        <v>18.4</v>
+        <v>18.9</v>
       </c>
       <c r="D52" s="5">
         <f t="shared" si="2"/>
-        <v>36.8</v>
+        <v>37.8</v>
       </c>
       <c r="E52" s="5">
         <f t="shared" si="3"/>
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F52" s="1">
         <v>54000</v>
@@ -2426,15 +2414,15 @@
         <v>48</v>
       </c>
       <c r="C53" s="1">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="D53" s="5">
         <f t="shared" si="2"/>
-        <v>37.6</v>
+        <v>38.6</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" si="3"/>
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="F53" s="1">
         <v>54000</v>
@@ -2448,15 +2436,15 @@
         <v>49</v>
       </c>
       <c r="C54" s="1">
-        <v>19.2</v>
+        <v>19.7</v>
       </c>
       <c r="D54" s="5">
         <f t="shared" si="2"/>
-        <v>38.4</v>
+        <v>39.4</v>
       </c>
       <c r="E54" s="5">
         <f t="shared" si="3"/>
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="F54" s="1">
         <v>54000</v>
@@ -2470,15 +2458,15 @@
         <v>50</v>
       </c>
       <c r="C55" s="1">
-        <v>19.6</v>
+        <v>20.1</v>
       </c>
       <c r="D55" s="5">
         <f t="shared" si="2"/>
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="E55" s="5">
         <f t="shared" si="3"/>
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="F55" s="1">
         <v>54000</v>
@@ -2492,15 +2480,15 @@
         <v>51</v>
       </c>
       <c r="C56" s="1">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="D56" s="5">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E56" s="5">
         <f t="shared" si="3"/>
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="F56" s="1">
         <v>999999999</v>
@@ -2514,15 +2502,15 @@
         <v>52</v>
       </c>
       <c r="C57" s="1">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="D57" s="5">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E57" s="5">
         <f t="shared" si="3"/>
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="F57" s="1">
         <v>999999999</v>
@@ -2536,15 +2524,15 @@
         <v>53</v>
       </c>
       <c r="C58" s="1">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="D58" s="5">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E58" s="5">
         <f t="shared" si="3"/>
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="F58" s="1">
         <v>999999999</v>
@@ -2558,15 +2546,15 @@
         <v>54</v>
       </c>
       <c r="C59" s="1">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="D59" s="5">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E59" s="5">
         <f t="shared" si="3"/>
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="F59" s="1">
         <v>999999999</v>
@@ -2580,15 +2568,15 @@
         <v>55</v>
       </c>
       <c r="C60" s="1">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="D60" s="5">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E60" s="5">
         <f t="shared" si="3"/>
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="F60" s="1">
         <v>999999999</v>

--- a/excel/blackhole_config.xlsx
+++ b/excel/blackhole_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="21000" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1247,20 +1247,20 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="11.1296296296296" customWidth="1"/>
     <col min="3" max="5" width="13.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6296296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
+    <row r="1" ht="15.6" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="16.5" spans="1:7">
+    <row r="2" ht="15.6" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:7">
+    <row r="3" ht="15.6" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" ht="15.6" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
+    <row r="5" ht="15.6" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1378,8 +1378,7 @@
         <v>2.6</v>
       </c>
       <c r="E6" s="5">
-        <f>D6*10</f>
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F6" s="6">
         <v>15</v>
@@ -1401,8 +1400,7 @@
         <v>2.9</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" ref="E7:E38" si="1">D7*10</f>
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F7" s="6">
         <v>15</v>
@@ -1424,8 +1422,7 @@
         <v>3.2</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F8" s="6">
         <v>15</v>
@@ -1447,8 +1444,7 @@
         <v>3.5</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F9" s="6">
         <v>15</v>
@@ -1470,8 +1466,7 @@
         <v>3.8</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="1"/>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F10" s="6">
         <v>15</v>
@@ -1493,8 +1488,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1">
         <v>54</v>
@@ -1516,8 +1510,7 @@
         <v>4.4</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="1"/>
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1">
         <v>54</v>
@@ -1539,8 +1532,7 @@
         <v>4.8</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="1"/>
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1">
         <v>54</v>
@@ -1562,8 +1554,7 @@
         <v>5.2</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1">
         <v>54</v>
@@ -1585,8 +1576,7 @@
         <v>5.6</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="1"/>
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F15" s="1">
         <v>54</v>
@@ -1607,8 +1597,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1">
         <v>126</v>
@@ -1629,8 +1618,7 @@
         <v>6.2</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="1"/>
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F17" s="1">
         <v>126</v>
@@ -1651,8 +1639,7 @@
         <v>6.4</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="1"/>
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1">
         <v>126</v>
@@ -1673,8 +1660,7 @@
         <v>6.6</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="1"/>
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1">
         <v>126</v>
@@ -1695,8 +1681,7 @@
         <v>6.8</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="1"/>
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1">
         <v>126</v>
@@ -1717,8 +1702,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F21" s="1">
         <v>180</v>
@@ -1739,8 +1723,7 @@
         <v>7.2</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F22" s="1">
         <v>180</v>
@@ -1761,8 +1744,7 @@
         <v>7.4</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="1"/>
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F23" s="1">
         <v>180</v>
@@ -1783,8 +1765,7 @@
         <v>7.6</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="1"/>
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F24" s="1">
         <v>180</v>
@@ -1805,8 +1786,7 @@
         <v>7.8</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="1"/>
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F25" s="1">
         <v>180</v>
@@ -1827,8 +1807,7 @@
         <v>9</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F26" s="1">
         <v>900</v>
@@ -1849,8 +1828,7 @@
         <v>9.4</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="1"/>
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="F27" s="1">
         <v>900</v>
@@ -1871,8 +1849,7 @@
         <v>9.8</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="1"/>
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F28" s="1">
         <v>900</v>
@@ -1893,8 +1870,7 @@
         <v>10.2</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="1"/>
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="F29" s="1">
         <v>900</v>
@@ -1915,8 +1891,7 @@
         <v>10.6</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="1"/>
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="F30" s="1">
         <v>900</v>
@@ -1937,8 +1912,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="F31" s="1">
         <v>1800</v>
@@ -1959,8 +1933,7 @@
         <v>12.4</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="1"/>
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="F32" s="1">
         <v>1800</v>
@@ -1981,8 +1954,7 @@
         <v>12.8</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="1"/>
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="F33" s="1">
         <v>1800</v>
@@ -2003,8 +1975,7 @@
         <v>13.2</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="1"/>
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="F34" s="1">
         <v>1800</v>
@@ -2025,8 +1996,7 @@
         <v>13.6</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="1"/>
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="F35" s="1">
         <v>1800</v>
@@ -2047,8 +2017,7 @@
         <v>19</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="1"/>
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="F36" s="1">
         <v>5400</v>
@@ -2069,8 +2038,7 @@
         <v>19.6</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="1"/>
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="F37" s="1">
         <v>5400</v>
@@ -2091,8 +2059,7 @@
         <v>20.2</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="1"/>
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="F38" s="1">
         <v>5400</v>
@@ -2109,12 +2076,11 @@
         <v>10.4</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" ref="D39:D60" si="2">C39*2</f>
+        <f t="shared" ref="D39:D60" si="1">C39*2</f>
         <v>20.8</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" ref="E39:E60" si="3">D39*10</f>
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="F39" s="1">
         <v>5400</v>
@@ -2131,12 +2097,11 @@
         <v>10.7</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21.4</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="3"/>
-        <v>214</v>
+        <v>112</v>
       </c>
       <c r="F40" s="1">
         <v>5400</v>
@@ -2153,12 +2118,11 @@
         <v>11.5</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="3"/>
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="F41" s="1">
         <v>14400</v>
@@ -2175,12 +2139,11 @@
         <v>11.8</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23.6</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="3"/>
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="F42" s="1">
         <v>14400</v>
@@ -2197,12 +2160,11 @@
         <v>12.1</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24.2</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="3"/>
-        <v>242</v>
+        <v>121</v>
       </c>
       <c r="F43" s="1">
         <v>14400</v>
@@ -2219,12 +2181,11 @@
         <v>12.4</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24.8</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="3"/>
-        <v>248</v>
+        <v>124</v>
       </c>
       <c r="F44" s="1">
         <v>14400</v>
@@ -2241,12 +2202,11 @@
         <v>12.7</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25.4</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="3"/>
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="F45" s="1">
         <v>14400</v>
@@ -2263,12 +2223,11 @@
         <v>14</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="3"/>
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="F46" s="1">
         <v>27000</v>
@@ -2285,12 +2244,11 @@
         <v>14.4</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28.8</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="3"/>
-        <v>288</v>
+        <v>133</v>
       </c>
       <c r="F47" s="1">
         <v>27000</v>
@@ -2307,12 +2265,11 @@
         <v>14.8</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29.6</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="3"/>
-        <v>296</v>
+        <v>136</v>
       </c>
       <c r="F48" s="1">
         <v>27000</v>
@@ -2329,12 +2286,11 @@
         <v>15.2</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30.4</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="3"/>
-        <v>304</v>
+        <v>139</v>
       </c>
       <c r="F49" s="1">
         <v>27000</v>
@@ -2351,12 +2307,11 @@
         <v>15.6</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31.2</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="3"/>
-        <v>312</v>
+        <v>142</v>
       </c>
       <c r="F50" s="1">
         <v>27000</v>
@@ -2373,12 +2328,11 @@
         <v>18.5</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="3"/>
-        <v>370</v>
+        <v>145</v>
       </c>
       <c r="F51" s="1">
         <v>54000</v>
@@ -2395,12 +2349,11 @@
         <v>18.9</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37.8</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="3"/>
-        <v>378</v>
+        <v>148</v>
       </c>
       <c r="F52" s="1">
         <v>54000</v>
@@ -2417,12 +2370,11 @@
         <v>19.3</v>
       </c>
       <c r="D53" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38.6</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="3"/>
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="F53" s="1">
         <v>54000</v>
@@ -2439,12 +2391,11 @@
         <v>19.7</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39.4</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="3"/>
-        <v>394</v>
+        <v>154</v>
       </c>
       <c r="F54" s="1">
         <v>54000</v>
@@ -2461,12 +2412,11 @@
         <v>20.1</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40.2</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="3"/>
-        <v>402</v>
+        <v>157</v>
       </c>
       <c r="F55" s="1">
         <v>54000</v>
@@ -2483,11 +2433,11 @@
         <v>23.5</v>
       </c>
       <c r="D56" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="3"/>
+        <f>D56*10</f>
         <v>470</v>
       </c>
       <c r="F56" s="1">
@@ -2505,11 +2455,11 @@
         <v>23.5</v>
       </c>
       <c r="D57" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="3"/>
+        <f>D57*10</f>
         <v>470</v>
       </c>
       <c r="F57" s="1">
@@ -2527,11 +2477,11 @@
         <v>23.5</v>
       </c>
       <c r="D58" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" si="3"/>
+        <f>D58*10</f>
         <v>470</v>
       </c>
       <c r="F58" s="1">
@@ -2549,11 +2499,11 @@
         <v>23.5</v>
       </c>
       <c r="D59" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="3"/>
+        <f>D59*10</f>
         <v>470</v>
       </c>
       <c r="F59" s="1">
@@ -2571,11 +2521,11 @@
         <v>23.5</v>
       </c>
       <c r="D60" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="3"/>
+        <f>D60*10</f>
         <v>470</v>
       </c>
       <c r="F60" s="1">

--- a/excel/blackhole_config.xlsx
+++ b/excel/blackhole_config.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12780"/>
+    <workbookView windowHeight="16360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -45,6 +32,9 @@
   </si>
   <si>
     <t>升到此等级所需经验</t>
+  </si>
+  <si>
+    <t>半径</t>
   </si>
   <si>
     <t>id</t>
@@ -65,6 +55,9 @@
     <t>exp</t>
   </si>
   <si>
+    <t>radius</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -80,12 +73,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -103,6 +96,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -111,18 +134,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,53 +159,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -199,6 +168,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,8 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,18 +211,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -256,49 +249,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,133 +423,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +440,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,45 +478,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,153 +516,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -707,14 +700,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,54 +715,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -964,7 +957,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -973,7 +966,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1247,20 +1240,20 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E55"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.3796296296296" customWidth="1"/>
-    <col min="2" max="2" width="11.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="5" width="13.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6296296296296" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1279,324 +1272,357 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" ht="15.6" spans="1:7">
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" ht="15.6" spans="1:7">
-      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" ht="15.6" spans="1:6">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="15.6" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
+    </row>
+    <row r="4" ht="27" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1.3</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f>C6*2</f>
         <v>2.6</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>10</v>
       </c>
       <c r="F6" s="6">
         <v>15</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>1.45</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" ref="D7:D38" si="0">C7*2</f>
         <v>2.9</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>13</v>
       </c>
       <c r="F7" s="6">
         <v>15</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>1.6</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>16</v>
       </c>
       <c r="F8" s="6">
         <v>15</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="5">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>4</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>1.75</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>19</v>
       </c>
       <c r="F9" s="6">
         <v>15</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="5">
+        <v>0.56</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>5</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>1.9</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>3.8</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>22</v>
       </c>
       <c r="F10" s="6">
         <v>15</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="5">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>6</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>25</v>
       </c>
       <c r="F11" s="1">
         <v>54</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="5">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>7</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>2.2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>4.4</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>28</v>
       </c>
       <c r="F12" s="1">
         <v>54</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="5">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>8</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>2.4</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>31</v>
       </c>
       <c r="F13" s="1">
         <v>54</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="5">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>9</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>2.6</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>34</v>
       </c>
       <c r="F14" s="1">
         <v>54</v>
       </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5">
+      <c r="G14" s="5">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>10</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>2.8</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>37</v>
       </c>
       <c r="F15" s="1">
         <v>54</v>
       </c>
+      <c r="G15">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>11</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>40</v>
       </c>
       <c r="F16" s="1">
@@ -1604,20 +1630,20 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>12</v>
       </c>
       <c r="C17" s="1">
         <v>3.1</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
         <v>6.2</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>43</v>
       </c>
       <c r="F17" s="1">
@@ -1625,20 +1651,20 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>13</v>
       </c>
       <c r="C18" s="1">
         <v>3.2</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>46</v>
       </c>
       <c r="F18" s="1">
@@ -1646,20 +1672,20 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>14</v>
       </c>
       <c r="C19" s="1">
         <v>3.3</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>49</v>
       </c>
       <c r="F19" s="1">
@@ -1667,20 +1693,20 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>15</v>
       </c>
       <c r="C20" s="1">
         <v>3.4</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <f t="shared" si="0"/>
         <v>6.8</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>52</v>
       </c>
       <c r="F20" s="1">
@@ -1688,20 +1714,20 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>16</v>
       </c>
       <c r="C21" s="1">
         <v>3.5</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>55</v>
       </c>
       <c r="F21" s="1">
@@ -1709,20 +1735,20 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>17</v>
       </c>
       <c r="C22" s="1">
         <v>3.6</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>58</v>
       </c>
       <c r="F22" s="1">
@@ -1730,20 +1756,20 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>18</v>
       </c>
       <c r="C23" s="1">
         <v>3.7</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <f t="shared" si="0"/>
         <v>7.4</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>61</v>
       </c>
       <c r="F23" s="1">
@@ -1751,20 +1777,20 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>19</v>
       </c>
       <c r="C24" s="1">
         <v>3.8</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>64</v>
       </c>
       <c r="F24" s="1">
@@ -1772,20 +1798,20 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>20</v>
       </c>
       <c r="C25" s="1">
         <v>3.9</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>67</v>
       </c>
       <c r="F25" s="1">
@@ -1793,20 +1819,20 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>21</v>
       </c>
       <c r="C26" s="1">
         <v>4.5</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>70</v>
       </c>
       <c r="F26" s="1">
@@ -1814,20 +1840,20 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>22</v>
       </c>
       <c r="C27" s="1">
         <v>4.7</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f t="shared" si="0"/>
         <v>9.4</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>73</v>
       </c>
       <c r="F27" s="1">
@@ -1835,20 +1861,20 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>23</v>
       </c>
       <c r="C28" s="1">
         <v>4.9</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <f t="shared" si="0"/>
         <v>9.8</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>76</v>
       </c>
       <c r="F28" s="1">
@@ -1856,20 +1882,20 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>24</v>
       </c>
       <c r="C29" s="1">
         <v>5.1</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <f t="shared" si="0"/>
         <v>10.2</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>79</v>
       </c>
       <c r="F29" s="1">
@@ -1877,20 +1903,20 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>25</v>
       </c>
       <c r="C30" s="1">
         <v>5.3</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <f t="shared" si="0"/>
         <v>10.6</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>82</v>
       </c>
       <c r="F30" s="1">
@@ -1898,20 +1924,20 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>26</v>
       </c>
       <c r="C31" s="1">
         <v>6</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>85</v>
       </c>
       <c r="F31" s="1">
@@ -1919,20 +1945,20 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>27</v>
       </c>
       <c r="C32" s="1">
         <v>6.2</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <f t="shared" si="0"/>
         <v>12.4</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>88</v>
       </c>
       <c r="F32" s="1">
@@ -1940,20 +1966,20 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>28</v>
       </c>
       <c r="C33" s="1">
         <v>6.4</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <f t="shared" si="0"/>
         <v>12.8</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <v>91</v>
       </c>
       <c r="F33" s="1">
@@ -1961,20 +1987,20 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>29</v>
       </c>
       <c r="C34" s="1">
         <v>6.6</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <f t="shared" si="0"/>
         <v>13.2</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>94</v>
       </c>
       <c r="F34" s="1">
@@ -1982,20 +2008,20 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>30</v>
       </c>
       <c r="C35" s="1">
         <v>6.8</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <f t="shared" si="0"/>
         <v>13.6</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>97</v>
       </c>
       <c r="F35" s="1">
@@ -2003,20 +2029,20 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>31</v>
       </c>
       <c r="C36" s="1">
         <v>9.5</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>100</v>
       </c>
       <c r="F36" s="1">
@@ -2024,20 +2050,20 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>32</v>
       </c>
       <c r="C37" s="1">
         <v>9.8</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <f t="shared" si="0"/>
         <v>19.6</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>103</v>
       </c>
       <c r="F37" s="1">
@@ -2045,20 +2071,20 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>33</v>
       </c>
       <c r="C38" s="1">
         <v>10.1</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <f t="shared" si="0"/>
         <v>20.2</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>106</v>
       </c>
       <c r="F38" s="1">
@@ -2066,20 +2092,20 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>34</v>
       </c>
       <c r="C39" s="1">
         <v>10.4</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <f t="shared" ref="D39:D60" si="1">C39*2</f>
         <v>20.8</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>109</v>
       </c>
       <c r="F39" s="1">
@@ -2087,20 +2113,20 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>35</v>
       </c>
       <c r="C40" s="1">
         <v>10.7</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <f t="shared" si="1"/>
         <v>21.4</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <v>112</v>
       </c>
       <c r="F40" s="1">
@@ -2108,20 +2134,20 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>36</v>
       </c>
       <c r="C41" s="1">
         <v>11.5</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <v>115</v>
       </c>
       <c r="F41" s="1">
@@ -2129,20 +2155,20 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>37</v>
       </c>
       <c r="C42" s="1">
         <v>11.8</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <f t="shared" si="1"/>
         <v>23.6</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>118</v>
       </c>
       <c r="F42" s="1">
@@ -2150,20 +2176,20 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>38</v>
       </c>
       <c r="C43" s="1">
         <v>12.1</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <f t="shared" si="1"/>
         <v>24.2</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>121</v>
       </c>
       <c r="F43" s="1">
@@ -2171,20 +2197,20 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>39</v>
       </c>
       <c r="C44" s="1">
         <v>12.4</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <f t="shared" si="1"/>
         <v>24.8</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>124</v>
       </c>
       <c r="F44" s="1">
@@ -2192,20 +2218,20 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>40</v>
       </c>
       <c r="C45" s="1">
         <v>12.7</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <f t="shared" si="1"/>
         <v>25.4</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <v>127</v>
       </c>
       <c r="F45" s="1">
@@ -2213,20 +2239,20 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>41</v>
       </c>
       <c r="C46" s="1">
         <v>14</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <v>130</v>
       </c>
       <c r="F46" s="1">
@@ -2234,20 +2260,20 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>42</v>
       </c>
       <c r="C47" s="1">
         <v>14.4</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <f t="shared" si="1"/>
         <v>28.8</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <v>133</v>
       </c>
       <c r="F47" s="1">
@@ -2255,20 +2281,20 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>43</v>
       </c>
       <c r="C48" s="1">
         <v>14.8</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <f t="shared" si="1"/>
         <v>29.6</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <v>136</v>
       </c>
       <c r="F48" s="1">
@@ -2276,20 +2302,20 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>44</v>
       </c>
       <c r="C49" s="1">
         <v>15.2</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <f t="shared" si="1"/>
         <v>30.4</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>139</v>
       </c>
       <c r="F49" s="1">
@@ -2297,20 +2323,20 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="5">
+      <c r="A50" s="4">
         <v>45</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>45</v>
       </c>
       <c r="C50" s="1">
         <v>15.6</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <f t="shared" si="1"/>
         <v>31.2</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="4">
         <v>142</v>
       </c>
       <c r="F50" s="1">
@@ -2318,20 +2344,20 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="5">
+      <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>46</v>
       </c>
       <c r="C51" s="1">
         <v>18.5</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <v>145</v>
       </c>
       <c r="F51" s="1">
@@ -2339,20 +2365,20 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>47</v>
       </c>
       <c r="C52" s="1">
         <v>18.9</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <f t="shared" si="1"/>
         <v>37.8</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="4">
         <v>148</v>
       </c>
       <c r="F52" s="1">
@@ -2360,20 +2386,20 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="5">
+      <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="4">
         <v>48</v>
       </c>
       <c r="C53" s="1">
         <v>19.3</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <f t="shared" si="1"/>
         <v>38.6</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="4">
         <v>151</v>
       </c>
       <c r="F53" s="1">
@@ -2381,20 +2407,20 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>49</v>
       </c>
       <c r="C54" s="1">
         <v>19.7</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <f t="shared" si="1"/>
         <v>39.4</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="4">
         <v>154</v>
       </c>
       <c r="F54" s="1">
@@ -2402,20 +2428,20 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="5">
+      <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>50</v>
       </c>
       <c r="C55" s="1">
         <v>20.1</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <f t="shared" si="1"/>
         <v>40.2</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="4">
         <v>157</v>
       </c>
       <c r="F55" s="1">
@@ -2423,20 +2449,20 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="5">
+      <c r="A56" s="4">
         <v>51</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>51</v>
       </c>
       <c r="C56" s="1">
         <v>23.5</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="4">
         <f>D56*10</f>
         <v>470</v>
       </c>
@@ -2445,20 +2471,20 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="5">
+      <c r="A57" s="4">
         <v>52</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>52</v>
       </c>
       <c r="C57" s="1">
         <v>23.5</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="4">
         <f>D57*10</f>
         <v>470</v>
       </c>
@@ -2467,20 +2493,20 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="5">
+      <c r="A58" s="4">
         <v>53</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="4">
         <v>53</v>
       </c>
       <c r="C58" s="1">
         <v>23.5</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="4">
         <f>D58*10</f>
         <v>470</v>
       </c>
@@ -2489,20 +2515,20 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="5">
+      <c r="A59" s="4">
         <v>54</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="4">
         <v>54</v>
       </c>
       <c r="C59" s="1">
         <v>23.5</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="4">
         <f>D59*10</f>
         <v>470</v>
       </c>
@@ -2511,20 +2537,20 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="5">
+      <c r="A60" s="4">
         <v>55</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="4">
         <v>55</v>
       </c>
       <c r="C60" s="1">
         <v>23.5</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="4">
         <f>D60*10</f>
         <v>470</v>
       </c>

--- a/excel/blackhole_config.xlsx
+++ b/excel/blackhole_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -47,6 +47,9 @@
     <t>升到此等级所需经验</t>
   </si>
   <si>
+    <t>半径</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t>exp</t>
+  </si>
+  <si>
+    <t>radius</t>
   </si>
   <si>
     <t>int</t>
@@ -707,9 +713,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -718,6 +721,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1249,7 +1255,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E55"/>
+      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1279,1257 +1285,1425 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="15.6" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="31.2" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.1378</v>
+      </c>
+      <c r="D6" s="4">
+        <f>C6*20</f>
+        <v>2.756</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5">
+        <v>15</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.1537</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:D38" si="0">C7*20</f>
+        <v>3.074</v>
+      </c>
+      <c r="E7" s="4">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5">
+        <v>15</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.1696</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>3.392</v>
+      </c>
+      <c r="E8" s="4">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.1855</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>3.71</v>
+      </c>
+      <c r="E9" s="4">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.2014</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>4.028</v>
+      </c>
+      <c r="E10" s="4">
+        <v>22</v>
+      </c>
+      <c r="F10" s="5">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" ht="15.6" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" ht="15.6" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="15.6" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6*2</f>
-        <v>2.6</v>
-      </c>
-      <c r="E6" s="5">
-        <v>10</v>
-      </c>
-      <c r="F6" s="6">
-        <v>15</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1.45</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" ref="D7:D38" si="0">C7*2</f>
-        <v>2.9</v>
-      </c>
-      <c r="E7" s="5">
-        <v>13</v>
-      </c>
-      <c r="F7" s="6">
-        <v>15</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="E8" s="5">
-        <v>16</v>
-      </c>
-      <c r="F8" s="6">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1.75</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="E9" s="5">
-        <v>19</v>
-      </c>
-      <c r="F9" s="6">
-        <v>15</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>3.8</v>
-      </c>
-      <c r="E10" s="5">
-        <v>22</v>
-      </c>
-      <c r="F10" s="6">
-        <v>15</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5">
+      <c r="B11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="5">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="C11" s="4">
+        <v>0.212</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.24</v>
+      </c>
+      <c r="E11" s="4">
         <v>25</v>
       </c>
       <c r="F11" s="1">
         <v>54</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>7</v>
       </c>
-      <c r="C12" s="5">
-        <v>2.2</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" si="0"/>
-        <v>4.4</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="C12" s="4">
+        <v>0.2332</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>4.664</v>
+      </c>
+      <c r="E12" s="4">
         <v>28</v>
       </c>
       <c r="F12" s="1">
         <v>54</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="6">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>8</v>
       </c>
-      <c r="C13" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="C13" s="4">
+        <v>0.2544</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>5.088</v>
+      </c>
+      <c r="E13" s="4">
         <v>31</v>
       </c>
       <c r="F13" s="1">
         <v>54</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="6">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>9</v>
       </c>
-      <c r="C14" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="D14" s="5">
-        <f t="shared" si="0"/>
-        <v>5.2</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="C14" s="4">
+        <v>0.2756</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>5.512</v>
+      </c>
+      <c r="E14" s="4">
         <v>34</v>
       </c>
       <c r="F14" s="1">
         <v>54</v>
       </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5">
+      <c r="G14" s="6">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>10</v>
       </c>
-      <c r="C15" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" si="0"/>
-        <v>5.6</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="C15" s="4">
+        <v>0.2968</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>5.936</v>
+      </c>
+      <c r="E15" s="4">
         <v>37</v>
       </c>
       <c r="F15" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5">
+      <c r="G15" s="6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>11</v>
       </c>
       <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E16" s="5">
+        <v>0.318</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>6.36</v>
+      </c>
+      <c r="E16" s="4">
         <v>40</v>
       </c>
       <c r="F16" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5">
+      <c r="G16" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>12</v>
       </c>
       <c r="C17" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" si="0"/>
-        <v>6.2</v>
-      </c>
-      <c r="E17" s="5">
+        <v>0.3286</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>6.572</v>
+      </c>
+      <c r="E17" s="4">
         <v>43</v>
       </c>
       <c r="F17" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5">
+      <c r="G17" s="6">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>13</v>
       </c>
       <c r="C18" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="D18" s="5">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="E18" s="5">
+        <v>0.3392</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>6.784</v>
+      </c>
+      <c r="E18" s="4">
         <v>46</v>
       </c>
       <c r="F18" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5">
+      <c r="G18" s="6">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>14</v>
       </c>
       <c r="C19" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="D19" s="5">
-        <f t="shared" si="0"/>
-        <v>6.6</v>
-      </c>
-      <c r="E19" s="5">
+        <v>0.3498</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>6.996</v>
+      </c>
+      <c r="E19" s="4">
         <v>49</v>
       </c>
       <c r="F19" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5">
+      <c r="G19" s="6">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>15</v>
       </c>
       <c r="C20" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="D20" s="5">
-        <f t="shared" si="0"/>
-        <v>6.8</v>
-      </c>
-      <c r="E20" s="5">
+        <v>0.3604</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>7.208</v>
+      </c>
+      <c r="E20" s="4">
         <v>52</v>
       </c>
       <c r="F20" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5">
+      <c r="G20" s="6">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>16</v>
       </c>
       <c r="C21" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="D21" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E21" s="5">
+        <v>0.371</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>7.42</v>
+      </c>
+      <c r="E21" s="4">
         <v>55</v>
       </c>
       <c r="F21" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5">
+      <c r="G21" s="6">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>17</v>
       </c>
       <c r="C22" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="D22" s="5">
-        <f t="shared" si="0"/>
-        <v>7.2</v>
-      </c>
-      <c r="E22" s="5">
+        <v>0.3816</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>7.632</v>
+      </c>
+      <c r="E22" s="4">
         <v>58</v>
       </c>
       <c r="F22" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5">
+      <c r="G22" s="6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>18</v>
       </c>
       <c r="C23" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="D23" s="5">
-        <f t="shared" si="0"/>
-        <v>7.4</v>
-      </c>
-      <c r="E23" s="5">
+        <v>0.3922</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>7.844</v>
+      </c>
+      <c r="E23" s="4">
         <v>61</v>
       </c>
       <c r="F23" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="5">
+      <c r="G23" s="6">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>19</v>
       </c>
       <c r="C24" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="D24" s="5">
-        <f t="shared" si="0"/>
-        <v>7.6</v>
-      </c>
-      <c r="E24" s="5">
+        <v>0.4028</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>8.056</v>
+      </c>
+      <c r="E24" s="4">
         <v>64</v>
       </c>
       <c r="F24" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="5">
+      <c r="G24" s="6">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>20</v>
       </c>
       <c r="C25" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="D25" s="5">
-        <f t="shared" si="0"/>
-        <v>7.8</v>
-      </c>
-      <c r="E25" s="5">
+        <v>0.4134</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>8.268</v>
+      </c>
+      <c r="E25" s="4">
         <v>67</v>
       </c>
       <c r="F25" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="5">
+      <c r="G25" s="6">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>21</v>
       </c>
       <c r="C26" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="D26" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E26" s="5">
+        <v>0.477</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>9.54</v>
+      </c>
+      <c r="E26" s="4">
         <v>70</v>
       </c>
       <c r="F26" s="1">
         <v>900</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5">
+      <c r="G26" s="6">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>22</v>
       </c>
       <c r="C27" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="D27" s="5">
-        <f t="shared" si="0"/>
-        <v>9.4</v>
-      </c>
-      <c r="E27" s="5">
+        <v>0.4982</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>9.964</v>
+      </c>
+      <c r="E27" s="4">
         <v>73</v>
       </c>
       <c r="F27" s="1">
         <v>900</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="5">
+      <c r="G27" s="6">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>23</v>
       </c>
       <c r="C28" s="1">
-        <v>4.9</v>
-      </c>
-      <c r="D28" s="5">
-        <f t="shared" si="0"/>
-        <v>9.8</v>
-      </c>
-      <c r="E28" s="5">
+        <v>0.5194</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>10.388</v>
+      </c>
+      <c r="E28" s="4">
         <v>76</v>
       </c>
       <c r="F28" s="1">
         <v>900</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="5">
+      <c r="G28" s="6">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>24</v>
       </c>
       <c r="C29" s="1">
-        <v>5.1</v>
-      </c>
-      <c r="D29" s="5">
-        <f t="shared" si="0"/>
-        <v>10.2</v>
-      </c>
-      <c r="E29" s="5">
+        <v>0.5406</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>10.812</v>
+      </c>
+      <c r="E29" s="4">
         <v>79</v>
       </c>
       <c r="F29" s="1">
         <v>900</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="5">
+      <c r="G29" s="6">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>25</v>
       </c>
       <c r="C30" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="D30" s="5">
-        <f t="shared" si="0"/>
-        <v>10.6</v>
-      </c>
-      <c r="E30" s="5">
+        <v>0.5618</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>11.236</v>
+      </c>
+      <c r="E30" s="4">
         <v>82</v>
       </c>
       <c r="F30" s="1">
         <v>900</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="5">
+      <c r="G30" s="6">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>26</v>
       </c>
       <c r="C31" s="1">
-        <v>6</v>
-      </c>
-      <c r="D31" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E31" s="5">
+        <v>0.636</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>12.72</v>
+      </c>
+      <c r="E31" s="4">
         <v>85</v>
       </c>
       <c r="F31" s="1">
         <v>1800</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="5">
+      <c r="G31" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>27</v>
       </c>
       <c r="C32" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="D32" s="5">
-        <f t="shared" si="0"/>
-        <v>12.4</v>
-      </c>
-      <c r="E32" s="5">
+        <v>0.6572</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="0"/>
+        <v>13.144</v>
+      </c>
+      <c r="E32" s="4">
         <v>88</v>
       </c>
       <c r="F32" s="1">
         <v>1800</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="5">
+      <c r="G32" s="6">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>28</v>
       </c>
       <c r="C33" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="D33" s="5">
-        <f t="shared" si="0"/>
-        <v>12.8</v>
-      </c>
-      <c r="E33" s="5">
+        <v>0.6784</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="0"/>
+        <v>13.568</v>
+      </c>
+      <c r="E33" s="4">
         <v>91</v>
       </c>
       <c r="F33" s="1">
         <v>1800</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="5">
+      <c r="G33" s="6">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>29</v>
       </c>
       <c r="C34" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="D34" s="5">
-        <f t="shared" si="0"/>
-        <v>13.2</v>
-      </c>
-      <c r="E34" s="5">
+        <v>0.6996</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="0"/>
+        <v>13.992</v>
+      </c>
+      <c r="E34" s="4">
         <v>94</v>
       </c>
       <c r="F34" s="1">
         <v>1800</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="5">
+      <c r="G34" s="6">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>30</v>
       </c>
       <c r="C35" s="1">
-        <v>6.8</v>
-      </c>
-      <c r="D35" s="5">
-        <f t="shared" si="0"/>
-        <v>13.6</v>
-      </c>
-      <c r="E35" s="5">
+        <v>0.7208</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="0"/>
+        <v>14.416</v>
+      </c>
+      <c r="E35" s="4">
         <v>97</v>
       </c>
       <c r="F35" s="1">
         <v>1800</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="5">
+      <c r="G35" s="6">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>31</v>
       </c>
       <c r="C36" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="D36" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="E36" s="5">
+        <v>1.007</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="0"/>
+        <v>20.14</v>
+      </c>
+      <c r="E36" s="4">
         <v>100</v>
       </c>
       <c r="F36" s="1">
         <v>5400</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="5">
+      <c r="G36" s="6">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>32</v>
       </c>
       <c r="C37" s="1">
-        <v>9.8</v>
-      </c>
-      <c r="D37" s="5">
-        <f t="shared" si="0"/>
-        <v>19.6</v>
-      </c>
-      <c r="E37" s="5">
+        <v>1.0388</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="0"/>
+        <v>20.776</v>
+      </c>
+      <c r="E37" s="4">
         <v>103</v>
       </c>
       <c r="F37" s="1">
         <v>5400</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="5">
+      <c r="G37" s="6">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>33</v>
       </c>
       <c r="C38" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="D38" s="5">
-        <f t="shared" si="0"/>
-        <v>20.2</v>
-      </c>
-      <c r="E38" s="5">
+        <v>1.0706</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="0"/>
+        <v>21.412</v>
+      </c>
+      <c r="E38" s="4">
         <v>106</v>
       </c>
       <c r="F38" s="1">
         <v>5400</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="5">
+      <c r="G38" s="6">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>34</v>
       </c>
       <c r="C39" s="1">
-        <v>10.4</v>
-      </c>
-      <c r="D39" s="5">
-        <f t="shared" ref="D39:D60" si="1">C39*2</f>
-        <v>20.8</v>
-      </c>
-      <c r="E39" s="5">
+        <v>1.1024</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" ref="D39:D60" si="1">C39*20</f>
+        <v>22.048</v>
+      </c>
+      <c r="E39" s="4">
         <v>109</v>
       </c>
       <c r="F39" s="1">
         <v>5400</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="5">
+      <c r="G39" s="6">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>35</v>
       </c>
       <c r="C40" s="1">
-        <v>10.7</v>
-      </c>
-      <c r="D40" s="5">
+        <v>1.1342</v>
+      </c>
+      <c r="D40" s="4">
         <f t="shared" si="1"/>
-        <v>21.4</v>
-      </c>
-      <c r="E40" s="5">
+        <v>22.684</v>
+      </c>
+      <c r="E40" s="4">
         <v>112</v>
       </c>
       <c r="F40" s="1">
         <v>5400</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="5">
+      <c r="G40" s="6">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>36</v>
       </c>
       <c r="C41" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="D41" s="5">
+        <v>1.219</v>
+      </c>
+      <c r="D41" s="4">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="E41" s="5">
+        <v>24.38</v>
+      </c>
+      <c r="E41" s="4">
         <v>115</v>
       </c>
       <c r="F41" s="1">
         <v>14400</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="5">
+      <c r="G41" s="6">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>37</v>
       </c>
       <c r="C42" s="1">
-        <v>11.8</v>
-      </c>
-      <c r="D42" s="5">
+        <v>1.2508</v>
+      </c>
+      <c r="D42" s="4">
         <f t="shared" si="1"/>
-        <v>23.6</v>
-      </c>
-      <c r="E42" s="5">
+        <v>25.016</v>
+      </c>
+      <c r="E42" s="4">
         <v>118</v>
       </c>
       <c r="F42" s="1">
         <v>14400</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="5">
+      <c r="G42" s="6">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>38</v>
       </c>
       <c r="C43" s="1">
-        <v>12.1</v>
-      </c>
-      <c r="D43" s="5">
+        <v>1.2826</v>
+      </c>
+      <c r="D43" s="4">
         <f t="shared" si="1"/>
-        <v>24.2</v>
-      </c>
-      <c r="E43" s="5">
+        <v>25.652</v>
+      </c>
+      <c r="E43" s="4">
         <v>121</v>
       </c>
       <c r="F43" s="1">
         <v>14400</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="5">
+      <c r="G43" s="6">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>39</v>
       </c>
       <c r="C44" s="1">
-        <v>12.4</v>
-      </c>
-      <c r="D44" s="5">
+        <v>1.3144</v>
+      </c>
+      <c r="D44" s="4">
         <f t="shared" si="1"/>
-        <v>24.8</v>
-      </c>
-      <c r="E44" s="5">
+        <v>26.288</v>
+      </c>
+      <c r="E44" s="4">
         <v>124</v>
       </c>
       <c r="F44" s="1">
         <v>14400</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="5">
+      <c r="G44" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>40</v>
       </c>
       <c r="C45" s="1">
-        <v>12.7</v>
-      </c>
-      <c r="D45" s="5">
+        <v>1.3462</v>
+      </c>
+      <c r="D45" s="4">
         <f t="shared" si="1"/>
-        <v>25.4</v>
-      </c>
-      <c r="E45" s="5">
+        <v>26.924</v>
+      </c>
+      <c r="E45" s="4">
         <v>127</v>
       </c>
       <c r="F45" s="1">
         <v>14400</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="5">
+      <c r="G45" s="6">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>41</v>
       </c>
       <c r="C46" s="1">
-        <v>14</v>
-      </c>
-      <c r="D46" s="5">
+        <v>1.484</v>
+      </c>
+      <c r="D46" s="4">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="E46" s="5">
+        <v>29.68</v>
+      </c>
+      <c r="E46" s="4">
         <v>130</v>
       </c>
       <c r="F46" s="1">
         <v>27000</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="5">
+      <c r="G46" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>42</v>
       </c>
       <c r="C47" s="1">
-        <v>14.4</v>
-      </c>
-      <c r="D47" s="5">
+        <v>1.5264</v>
+      </c>
+      <c r="D47" s="4">
         <f t="shared" si="1"/>
-        <v>28.8</v>
-      </c>
-      <c r="E47" s="5">
+        <v>30.528</v>
+      </c>
+      <c r="E47" s="4">
         <v>133</v>
       </c>
       <c r="F47" s="1">
         <v>27000</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="5">
+      <c r="G47" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>43</v>
       </c>
       <c r="C48" s="1">
-        <v>14.8</v>
-      </c>
-      <c r="D48" s="5">
+        <v>1.5688</v>
+      </c>
+      <c r="D48" s="4">
         <f t="shared" si="1"/>
-        <v>29.6</v>
-      </c>
-      <c r="E48" s="5">
+        <v>31.376</v>
+      </c>
+      <c r="E48" s="4">
         <v>136</v>
       </c>
       <c r="F48" s="1">
         <v>27000</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="5">
+      <c r="G48" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>44</v>
       </c>
       <c r="C49" s="1">
-        <v>15.2</v>
-      </c>
-      <c r="D49" s="5">
+        <v>1.6112</v>
+      </c>
+      <c r="D49" s="4">
         <f t="shared" si="1"/>
-        <v>30.4</v>
-      </c>
-      <c r="E49" s="5">
+        <v>32.224</v>
+      </c>
+      <c r="E49" s="4">
         <v>139</v>
       </c>
       <c r="F49" s="1">
         <v>27000</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="5">
+      <c r="G49" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="4">
         <v>45</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>45</v>
       </c>
       <c r="C50" s="1">
-        <v>15.6</v>
-      </c>
-      <c r="D50" s="5">
+        <v>1.6536</v>
+      </c>
+      <c r="D50" s="4">
         <f t="shared" si="1"/>
-        <v>31.2</v>
-      </c>
-      <c r="E50" s="5">
+        <v>33.072</v>
+      </c>
+      <c r="E50" s="4">
         <v>142</v>
       </c>
       <c r="F50" s="1">
         <v>27000</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="5">
+      <c r="G50" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>46</v>
       </c>
       <c r="C51" s="1">
-        <v>18.5</v>
-      </c>
-      <c r="D51" s="5">
+        <v>1.961</v>
+      </c>
+      <c r="D51" s="4">
         <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="E51" s="5">
+        <v>39.22</v>
+      </c>
+      <c r="E51" s="4">
         <v>145</v>
       </c>
       <c r="F51" s="1">
         <v>54000</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="5">
+      <c r="G51" s="6">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>47</v>
       </c>
       <c r="C52" s="1">
-        <v>18.9</v>
-      </c>
-      <c r="D52" s="5">
+        <v>2.0034</v>
+      </c>
+      <c r="D52" s="4">
         <f t="shared" si="1"/>
-        <v>37.8</v>
-      </c>
-      <c r="E52" s="5">
+        <v>40.068</v>
+      </c>
+      <c r="E52" s="4">
         <v>148</v>
       </c>
       <c r="F52" s="1">
         <v>54000</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="5">
+      <c r="G52" s="6">
+        <v>9.45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="4">
         <v>48</v>
       </c>
       <c r="C53" s="1">
-        <v>19.3</v>
-      </c>
-      <c r="D53" s="5">
+        <v>2.0458</v>
+      </c>
+      <c r="D53" s="4">
         <f t="shared" si="1"/>
-        <v>38.6</v>
-      </c>
-      <c r="E53" s="5">
+        <v>40.916</v>
+      </c>
+      <c r="E53" s="4">
         <v>151</v>
       </c>
       <c r="F53" s="1">
         <v>54000</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="5">
+      <c r="G53" s="6">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>49</v>
       </c>
       <c r="C54" s="1">
-        <v>19.7</v>
-      </c>
-      <c r="D54" s="5">
+        <v>2.0882</v>
+      </c>
+      <c r="D54" s="4">
         <f t="shared" si="1"/>
-        <v>39.4</v>
-      </c>
-      <c r="E54" s="5">
+        <v>41.764</v>
+      </c>
+      <c r="E54" s="4">
         <v>154</v>
       </c>
       <c r="F54" s="1">
         <v>54000</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="5">
+      <c r="G54" s="6">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>50</v>
       </c>
       <c r="C55" s="1">
-        <v>20.1</v>
-      </c>
-      <c r="D55" s="5">
+        <v>2.1306</v>
+      </c>
+      <c r="D55" s="4">
         <f t="shared" si="1"/>
-        <v>40.2</v>
-      </c>
-      <c r="E55" s="5">
+        <v>42.612</v>
+      </c>
+      <c r="E55" s="4">
         <v>157</v>
       </c>
       <c r="F55" s="1">
         <v>54000</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="5">
+      <c r="G55" s="6">
+        <v>10.05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="4">
         <v>51</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>51</v>
       </c>
       <c r="C56" s="1">
-        <v>23.5</v>
-      </c>
-      <c r="D56" s="5">
+        <v>2.491</v>
+      </c>
+      <c r="D56" s="4">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="E56" s="5">
+        <v>49.82</v>
+      </c>
+      <c r="E56" s="4">
         <f>D56*10</f>
-        <v>470</v>
+        <v>498.2</v>
       </c>
       <c r="F56" s="1">
         <v>999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="5">
+      <c r="G56" s="6">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="4">
         <v>52</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>52</v>
       </c>
       <c r="C57" s="1">
-        <v>23.5</v>
-      </c>
-      <c r="D57" s="5">
+        <v>2.491</v>
+      </c>
+      <c r="D57" s="4">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="E57" s="5">
+        <v>49.82</v>
+      </c>
+      <c r="E57" s="4">
         <f>D57*10</f>
-        <v>470</v>
+        <v>498.2</v>
       </c>
       <c r="F57" s="1">
         <v>999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="5">
+      <c r="G57" s="6">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="4">
         <v>53</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="4">
         <v>53</v>
       </c>
       <c r="C58" s="1">
-        <v>23.5</v>
-      </c>
-      <c r="D58" s="5">
+        <v>2.491</v>
+      </c>
+      <c r="D58" s="4">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="E58" s="5">
+        <v>49.82</v>
+      </c>
+      <c r="E58" s="4">
         <f>D58*10</f>
-        <v>470</v>
+        <v>498.2</v>
       </c>
       <c r="F58" s="1">
         <v>999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="5">
+      <c r="G58" s="6">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="4">
         <v>54</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="4">
         <v>54</v>
       </c>
       <c r="C59" s="1">
-        <v>23.5</v>
-      </c>
-      <c r="D59" s="5">
+        <v>2.491</v>
+      </c>
+      <c r="D59" s="4">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="E59" s="5">
+        <v>49.82</v>
+      </c>
+      <c r="E59" s="4">
         <f>D59*10</f>
-        <v>470</v>
+        <v>498.2</v>
       </c>
       <c r="F59" s="1">
         <v>999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="5">
+      <c r="G59" s="6">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="4">
         <v>55</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="4">
         <v>55</v>
       </c>
       <c r="C60" s="1">
-        <v>23.5</v>
-      </c>
-      <c r="D60" s="5">
+        <v>2.491</v>
+      </c>
+      <c r="D60" s="4">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="E60" s="5">
+        <v>49.82</v>
+      </c>
+      <c r="E60" s="4">
         <f>D60*10</f>
-        <v>470</v>
+        <v>498.2</v>
       </c>
       <c r="F60" s="1">
         <v>999999999</v>
+      </c>
+      <c r="G60" s="6">
+        <v>11.75</v>
       </c>
     </row>
   </sheetData>

--- a/excel/blackhole_config.xlsx
+++ b/excel/blackhole_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12780"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1253,20 +1253,20 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.3796296296296" customWidth="1"/>
-    <col min="2" max="2" width="11.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="11.3833333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.1333333333333" customWidth="1"/>
     <col min="3" max="5" width="13.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6296296296296" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6333333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:7">
+    <row r="1" ht="16.5" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:7">
+    <row r="2" ht="16.5" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:7">
+    <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="31.2" spans="1:7">
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:7">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>

--- a/excel/blackhole_config.xlsx
+++ b/excel/blackhole_config.xlsx
@@ -703,7 +703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,6 +718,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1253,16 +1256,17 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.3833333333333" customWidth="1"/>
     <col min="2" max="2" width="11.1333333333333" customWidth="1"/>
-    <col min="3" max="5" width="13.25" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.6333333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1395,13 +1399,13 @@
         <f>C6*20</f>
         <v>2.756</v>
       </c>
-      <c r="E6" s="4">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6">
         <v>15</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <v>0.65</v>
       </c>
     </row>
@@ -1419,13 +1423,13 @@
         <f t="shared" ref="D7:D38" si="0">C7*20</f>
         <v>3.074</v>
       </c>
-      <c r="E7" s="4">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="5">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6">
         <v>15</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>0.725</v>
       </c>
     </row>
@@ -1443,13 +1447,13 @@
         <f t="shared" si="0"/>
         <v>3.392</v>
       </c>
-      <c r="E8" s="4">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="5">
+        <v>8</v>
+      </c>
+      <c r="F8" s="6">
         <v>15</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <v>0.8</v>
       </c>
     </row>
@@ -1467,13 +1471,13 @@
         <f t="shared" si="0"/>
         <v>3.71</v>
       </c>
-      <c r="E9" s="4">
-        <v>19</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9" s="5">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6">
         <v>15</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>0.875</v>
       </c>
     </row>
@@ -1491,13 +1495,13 @@
         <f t="shared" si="0"/>
         <v>4.028</v>
       </c>
-      <c r="E10" s="4">
-        <v>22</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10" s="5">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6">
         <v>15</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>0.95</v>
       </c>
     </row>
@@ -1515,13 +1519,13 @@
         <f t="shared" si="0"/>
         <v>4.24</v>
       </c>
-      <c r="E11" s="4">
-        <v>25</v>
+      <c r="E11" s="5">
+        <v>13</v>
       </c>
       <c r="F11" s="1">
         <v>54</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1539,13 +1543,13 @@
         <f t="shared" si="0"/>
         <v>4.664</v>
       </c>
-      <c r="E12" s="4">
-        <v>28</v>
+      <c r="E12" s="5">
+        <v>13</v>
       </c>
       <c r="F12" s="1">
         <v>54</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="7">
         <v>1.1</v>
       </c>
     </row>
@@ -1563,13 +1567,13 @@
         <f t="shared" si="0"/>
         <v>5.088</v>
       </c>
-      <c r="E13" s="4">
-        <v>31</v>
+      <c r="E13" s="5">
+        <v>13</v>
       </c>
       <c r="F13" s="1">
         <v>54</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="7">
         <v>1.2</v>
       </c>
     </row>
@@ -1587,13 +1591,13 @@
         <f t="shared" si="0"/>
         <v>5.512</v>
       </c>
-      <c r="E14" s="4">
-        <v>34</v>
+      <c r="E14" s="5">
+        <v>13</v>
       </c>
       <c r="F14" s="1">
         <v>54</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="7">
         <v>1.3</v>
       </c>
     </row>
@@ -1611,13 +1615,13 @@
         <f t="shared" si="0"/>
         <v>5.936</v>
       </c>
-      <c r="E15" s="4">
-        <v>37</v>
+      <c r="E15" s="5">
+        <v>13</v>
       </c>
       <c r="F15" s="1">
         <v>54</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="7">
         <v>1.4</v>
       </c>
     </row>
@@ -1635,13 +1639,13 @@
         <f t="shared" si="0"/>
         <v>6.36</v>
       </c>
-      <c r="E16" s="4">
-        <v>40</v>
+      <c r="E16" s="5">
+        <v>19</v>
       </c>
       <c r="F16" s="1">
         <v>126</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="7">
         <v>1.5</v>
       </c>
     </row>
@@ -1659,13 +1663,13 @@
         <f t="shared" si="0"/>
         <v>6.572</v>
       </c>
-      <c r="E17" s="4">
-        <v>43</v>
+      <c r="E17" s="5">
+        <v>19</v>
       </c>
       <c r="F17" s="1">
         <v>126</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="7">
         <v>1.55</v>
       </c>
     </row>
@@ -1683,13 +1687,13 @@
         <f t="shared" si="0"/>
         <v>6.784</v>
       </c>
-      <c r="E18" s="4">
-        <v>46</v>
+      <c r="E18" s="5">
+        <v>19</v>
       </c>
       <c r="F18" s="1">
         <v>126</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="7">
         <v>1.6</v>
       </c>
     </row>
@@ -1707,13 +1711,13 @@
         <f t="shared" si="0"/>
         <v>6.996</v>
       </c>
-      <c r="E19" s="4">
-        <v>49</v>
+      <c r="E19" s="5">
+        <v>19</v>
       </c>
       <c r="F19" s="1">
         <v>126</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="7">
         <v>1.65</v>
       </c>
     </row>
@@ -1731,13 +1735,13 @@
         <f t="shared" si="0"/>
         <v>7.208</v>
       </c>
-      <c r="E20" s="4">
-        <v>52</v>
+      <c r="E20" s="5">
+        <v>19</v>
       </c>
       <c r="F20" s="1">
         <v>126</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="7">
         <v>1.7</v>
       </c>
     </row>
@@ -1755,13 +1759,13 @@
         <f t="shared" si="0"/>
         <v>7.42</v>
       </c>
-      <c r="E21" s="4">
-        <v>55</v>
+      <c r="E21" s="5">
+        <v>22</v>
       </c>
       <c r="F21" s="1">
         <v>180</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="7">
         <v>1.75</v>
       </c>
     </row>
@@ -1779,13 +1783,13 @@
         <f t="shared" si="0"/>
         <v>7.632</v>
       </c>
-      <c r="E22" s="4">
-        <v>58</v>
+      <c r="E22" s="5">
+        <v>22</v>
       </c>
       <c r="F22" s="1">
         <v>180</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="7">
         <v>1.8</v>
       </c>
     </row>
@@ -1803,13 +1807,13 @@
         <f t="shared" si="0"/>
         <v>7.844</v>
       </c>
-      <c r="E23" s="4">
-        <v>61</v>
+      <c r="E23" s="5">
+        <v>22</v>
       </c>
       <c r="F23" s="1">
         <v>180</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="7">
         <v>1.85</v>
       </c>
     </row>
@@ -1827,13 +1831,13 @@
         <f t="shared" si="0"/>
         <v>8.056</v>
       </c>
-      <c r="E24" s="4">
-        <v>64</v>
+      <c r="E24" s="5">
+        <v>22</v>
       </c>
       <c r="F24" s="1">
         <v>180</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="7">
         <v>1.9</v>
       </c>
     </row>
@@ -1851,13 +1855,13 @@
         <f t="shared" si="0"/>
         <v>8.268</v>
       </c>
-      <c r="E25" s="4">
-        <v>67</v>
+      <c r="E25" s="5">
+        <v>22</v>
       </c>
       <c r="F25" s="1">
         <v>180</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="7">
         <v>1.95</v>
       </c>
     </row>
@@ -1875,13 +1879,13 @@
         <f t="shared" si="0"/>
         <v>9.54</v>
       </c>
-      <c r="E26" s="4">
-        <v>70</v>
+      <c r="E26" s="5">
+        <v>28</v>
       </c>
       <c r="F26" s="1">
         <v>900</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="7">
         <v>2.25</v>
       </c>
     </row>
@@ -1899,13 +1903,13 @@
         <f t="shared" si="0"/>
         <v>9.964</v>
       </c>
-      <c r="E27" s="4">
-        <v>73</v>
+      <c r="E27" s="5">
+        <v>28</v>
       </c>
       <c r="F27" s="1">
         <v>900</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="7">
         <v>2.35</v>
       </c>
     </row>
@@ -1923,13 +1927,13 @@
         <f t="shared" si="0"/>
         <v>10.388</v>
       </c>
-      <c r="E28" s="4">
-        <v>76</v>
+      <c r="E28" s="5">
+        <v>28</v>
       </c>
       <c r="F28" s="1">
         <v>900</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="7">
         <v>2.45</v>
       </c>
     </row>
@@ -1947,13 +1951,13 @@
         <f t="shared" si="0"/>
         <v>10.812</v>
       </c>
-      <c r="E29" s="4">
-        <v>79</v>
+      <c r="E29" s="5">
+        <v>28</v>
       </c>
       <c r="F29" s="1">
         <v>900</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="7">
         <v>2.55</v>
       </c>
     </row>
@@ -1971,13 +1975,13 @@
         <f t="shared" si="0"/>
         <v>11.236</v>
       </c>
-      <c r="E30" s="4">
-        <v>82</v>
+      <c r="E30" s="5">
+        <v>28</v>
       </c>
       <c r="F30" s="1">
         <v>900</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="7">
         <v>2.65</v>
       </c>
     </row>
@@ -1995,13 +1999,13 @@
         <f t="shared" si="0"/>
         <v>12.72</v>
       </c>
-      <c r="E31" s="4">
-        <v>85</v>
+      <c r="E31" s="5">
+        <v>38</v>
       </c>
       <c r="F31" s="1">
         <v>1800</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="7">
         <v>3</v>
       </c>
     </row>
@@ -2019,13 +2023,13 @@
         <f t="shared" si="0"/>
         <v>13.144</v>
       </c>
-      <c r="E32" s="4">
-        <v>88</v>
+      <c r="E32" s="5">
+        <v>38</v>
       </c>
       <c r="F32" s="1">
         <v>1800</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="7">
         <v>3.1</v>
       </c>
     </row>
@@ -2043,13 +2047,13 @@
         <f t="shared" si="0"/>
         <v>13.568</v>
       </c>
-      <c r="E33" s="4">
-        <v>91</v>
+      <c r="E33" s="5">
+        <v>38</v>
       </c>
       <c r="F33" s="1">
         <v>1800</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="7">
         <v>3.2</v>
       </c>
     </row>
@@ -2067,13 +2071,13 @@
         <f t="shared" si="0"/>
         <v>13.992</v>
       </c>
-      <c r="E34" s="4">
-        <v>94</v>
+      <c r="E34" s="5">
+        <v>38</v>
       </c>
       <c r="F34" s="1">
         <v>1800</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="7">
         <v>3.3</v>
       </c>
     </row>
@@ -2091,13 +2095,13 @@
         <f t="shared" si="0"/>
         <v>14.416</v>
       </c>
-      <c r="E35" s="4">
-        <v>97</v>
+      <c r="E35" s="5">
+        <v>38</v>
       </c>
       <c r="F35" s="1">
         <v>1800</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="7">
         <v>3.4</v>
       </c>
     </row>
@@ -2115,13 +2119,13 @@
         <f t="shared" si="0"/>
         <v>20.14</v>
       </c>
-      <c r="E36" s="4">
-        <v>100</v>
+      <c r="E36" s="5">
+        <v>59</v>
       </c>
       <c r="F36" s="1">
         <v>5400</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="7">
         <v>4.75</v>
       </c>
     </row>
@@ -2139,13 +2143,13 @@
         <f t="shared" si="0"/>
         <v>20.776</v>
       </c>
-      <c r="E37" s="4">
-        <v>103</v>
+      <c r="E37" s="5">
+        <v>59</v>
       </c>
       <c r="F37" s="1">
         <v>5400</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="7">
         <v>4.9</v>
       </c>
     </row>
@@ -2163,13 +2167,13 @@
         <f t="shared" si="0"/>
         <v>21.412</v>
       </c>
-      <c r="E38" s="4">
-        <v>106</v>
+      <c r="E38" s="5">
+        <v>59</v>
       </c>
       <c r="F38" s="1">
         <v>5400</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="7">
         <v>5.05</v>
       </c>
     </row>
@@ -2187,13 +2191,13 @@
         <f t="shared" ref="D39:D60" si="1">C39*20</f>
         <v>22.048</v>
       </c>
-      <c r="E39" s="4">
-        <v>109</v>
+      <c r="E39" s="5">
+        <v>59</v>
       </c>
       <c r="F39" s="1">
         <v>5400</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="7">
         <v>5.2</v>
       </c>
     </row>
@@ -2211,13 +2215,13 @@
         <f t="shared" si="1"/>
         <v>22.684</v>
       </c>
-      <c r="E40" s="4">
-        <v>112</v>
+      <c r="E40" s="5">
+        <v>59</v>
       </c>
       <c r="F40" s="1">
         <v>5400</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="7">
         <v>5.35</v>
       </c>
     </row>
@@ -2235,13 +2239,13 @@
         <f t="shared" si="1"/>
         <v>24.38</v>
       </c>
-      <c r="E41" s="4">
-        <v>115</v>
+      <c r="E41" s="5">
+        <v>72</v>
       </c>
       <c r="F41" s="1">
         <v>14400</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="7">
         <v>5.75</v>
       </c>
     </row>
@@ -2259,13 +2263,13 @@
         <f t="shared" si="1"/>
         <v>25.016</v>
       </c>
-      <c r="E42" s="4">
-        <v>118</v>
+      <c r="E42" s="5">
+        <v>72</v>
       </c>
       <c r="F42" s="1">
         <v>14400</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="7">
         <v>5.9</v>
       </c>
     </row>
@@ -2283,13 +2287,13 @@
         <f t="shared" si="1"/>
         <v>25.652</v>
       </c>
-      <c r="E43" s="4">
-        <v>121</v>
+      <c r="E43" s="5">
+        <v>72</v>
       </c>
       <c r="F43" s="1">
         <v>14400</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="7">
         <v>6.05</v>
       </c>
     </row>
@@ -2307,13 +2311,13 @@
         <f t="shared" si="1"/>
         <v>26.288</v>
       </c>
-      <c r="E44" s="4">
-        <v>124</v>
+      <c r="E44" s="5">
+        <v>72</v>
       </c>
       <c r="F44" s="1">
         <v>14400</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="7">
         <v>6.2</v>
       </c>
     </row>
@@ -2331,13 +2335,13 @@
         <f t="shared" si="1"/>
         <v>26.924</v>
       </c>
-      <c r="E45" s="4">
-        <v>127</v>
+      <c r="E45" s="5">
+        <v>72</v>
       </c>
       <c r="F45" s="1">
         <v>14400</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="7">
         <v>6.35</v>
       </c>
     </row>
@@ -2355,13 +2359,13 @@
         <f t="shared" si="1"/>
         <v>29.68</v>
       </c>
-      <c r="E46" s="4">
-        <v>130</v>
+      <c r="E46" s="5">
+        <v>88</v>
       </c>
       <c r="F46" s="1">
         <v>27000</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="7">
         <v>7</v>
       </c>
     </row>
@@ -2379,13 +2383,13 @@
         <f t="shared" si="1"/>
         <v>30.528</v>
       </c>
-      <c r="E47" s="4">
-        <v>133</v>
+      <c r="E47" s="5">
+        <v>88</v>
       </c>
       <c r="F47" s="1">
         <v>27000</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="7">
         <v>7.2</v>
       </c>
     </row>
@@ -2403,13 +2407,13 @@
         <f t="shared" si="1"/>
         <v>31.376</v>
       </c>
-      <c r="E48" s="4">
-        <v>136</v>
+      <c r="E48" s="5">
+        <v>88</v>
       </c>
       <c r="F48" s="1">
         <v>27000</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="7">
         <v>7.4</v>
       </c>
     </row>
@@ -2427,13 +2431,13 @@
         <f t="shared" si="1"/>
         <v>32.224</v>
       </c>
-      <c r="E49" s="4">
-        <v>139</v>
+      <c r="E49" s="5">
+        <v>88</v>
       </c>
       <c r="F49" s="1">
         <v>27000</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="7">
         <v>7.6</v>
       </c>
     </row>
@@ -2451,13 +2455,13 @@
         <f t="shared" si="1"/>
         <v>33.072</v>
       </c>
-      <c r="E50" s="4">
-        <v>142</v>
+      <c r="E50" s="5">
+        <v>88</v>
       </c>
       <c r="F50" s="1">
         <v>27000</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="7">
         <v>7.8</v>
       </c>
     </row>
@@ -2475,13 +2479,13 @@
         <f t="shared" si="1"/>
         <v>39.22</v>
       </c>
-      <c r="E51" s="4">
-        <v>145</v>
+      <c r="E51" s="5">
+        <v>116</v>
       </c>
       <c r="F51" s="1">
         <v>54000</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="7">
         <v>9.25</v>
       </c>
     </row>
@@ -2499,13 +2503,13 @@
         <f t="shared" si="1"/>
         <v>40.068</v>
       </c>
-      <c r="E52" s="4">
-        <v>148</v>
+      <c r="E52" s="5">
+        <v>116</v>
       </c>
       <c r="F52" s="1">
         <v>54000</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="7">
         <v>9.45</v>
       </c>
     </row>
@@ -2523,13 +2527,13 @@
         <f t="shared" si="1"/>
         <v>40.916</v>
       </c>
-      <c r="E53" s="4">
-        <v>151</v>
+      <c r="E53" s="5">
+        <v>116</v>
       </c>
       <c r="F53" s="1">
         <v>54000</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="7">
         <v>9.65</v>
       </c>
     </row>
@@ -2547,13 +2551,13 @@
         <f t="shared" si="1"/>
         <v>41.764</v>
       </c>
-      <c r="E54" s="4">
-        <v>154</v>
+      <c r="E54" s="5">
+        <v>116</v>
       </c>
       <c r="F54" s="1">
         <v>54000</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="7">
         <v>9.85</v>
       </c>
     </row>
@@ -2571,13 +2575,13 @@
         <f t="shared" si="1"/>
         <v>42.612</v>
       </c>
-      <c r="E55" s="4">
-        <v>157</v>
+      <c r="E55" s="5">
+        <v>116</v>
       </c>
       <c r="F55" s="1">
         <v>54000</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="7">
         <v>10.05</v>
       </c>
     </row>
@@ -2595,14 +2599,13 @@
         <f t="shared" si="1"/>
         <v>49.82</v>
       </c>
-      <c r="E56" s="4">
-        <f>D56*10</f>
-        <v>498.2</v>
+      <c r="E56" s="5">
+        <v>147</v>
       </c>
       <c r="F56" s="1">
         <v>999999999</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="7">
         <v>11.75</v>
       </c>
     </row>
@@ -2620,14 +2623,13 @@
         <f t="shared" si="1"/>
         <v>49.82</v>
       </c>
-      <c r="E57" s="4">
-        <f>D57*10</f>
-        <v>498.2</v>
+      <c r="E57" s="5">
+        <v>147</v>
       </c>
       <c r="F57" s="1">
         <v>999999999</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="7">
         <v>11.75</v>
       </c>
     </row>
@@ -2645,14 +2647,13 @@
         <f t="shared" si="1"/>
         <v>49.82</v>
       </c>
-      <c r="E58" s="4">
-        <f>D58*10</f>
-        <v>498.2</v>
+      <c r="E58" s="5">
+        <v>147</v>
       </c>
       <c r="F58" s="1">
         <v>999999999</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="7">
         <v>11.75</v>
       </c>
     </row>
@@ -2670,14 +2671,13 @@
         <f t="shared" si="1"/>
         <v>49.82</v>
       </c>
-      <c r="E59" s="4">
-        <f>D59*10</f>
-        <v>498.2</v>
+      <c r="E59" s="5">
+        <v>147</v>
       </c>
       <c r="F59" s="1">
         <v>999999999</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="7">
         <v>11.75</v>
       </c>
     </row>
@@ -2695,14 +2695,13 @@
         <f t="shared" si="1"/>
         <v>49.82</v>
       </c>
-      <c r="E60" s="4">
-        <f>D60*10</f>
-        <v>498.2</v>
+      <c r="E60" s="5">
+        <v>147</v>
       </c>
       <c r="F60" s="1">
         <v>999999999</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="7">
         <v>11.75</v>
       </c>
     </row>
